--- a/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
+++ b/InputData/elec/CCaMC/Capacity Construction and Maint Costs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\elec\CCaMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-texas\InputData\elec\CCaMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A2D992-1D13-4349-8BC3-A9A14BCC5D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" tabRatio="775"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
@@ -18,11 +17,12 @@
     <sheet name="Start Year Wind and Solar" sheetId="9" r:id="rId3"/>
     <sheet name="Coal Cost Multipliers" sheetId="12" r:id="rId4"/>
     <sheet name="Cost Improvement and Off Wnd" sheetId="15" r:id="rId5"/>
-    <sheet name="CCaMC-AFOaMCpUC" sheetId="7" r:id="rId6"/>
-    <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId7"/>
-    <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId8"/>
+    <sheet name="Texas Notes" sheetId="16" r:id="rId6"/>
+    <sheet name="CCaMC-AFOaMCpUC" sheetId="7" r:id="rId7"/>
+    <sheet name="CCaMC-VOaMCpUC" sheetId="8" r:id="rId8"/>
+    <sheet name="CCaMC-BCCpUC" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="286">
   <si>
     <t>Onshore Wind</t>
   </si>
@@ -806,12 +806,174 @@
   <si>
     <t>This document is included as Appendix B of a report by Brattle Group.  It is on page 10 of the EnerNex report, which is page 70 of the PDF.</t>
   </si>
+  <si>
+    <t xml:space="preserve">We'll use the ATB 2019 data that the VCE WISdom model uses: </t>
+  </si>
+  <si>
+    <t>ATB 2019 data are presented as 2017 USD.</t>
+  </si>
+  <si>
+    <t>Investment Periods</t>
+  </si>
+  <si>
+    <t>Coal $/MWh</t>
+  </si>
+  <si>
+    <t>NG CC $/MWh</t>
+  </si>
+  <si>
+    <t>NG GT $/MWh</t>
+  </si>
+  <si>
+    <t>Storage $/MWh</t>
+  </si>
+  <si>
+    <t>Hydro $/MWh</t>
+  </si>
+  <si>
+    <t>Nuclear $/MWh</t>
+  </si>
+  <si>
+    <t>Wind $/MWh</t>
+  </si>
+  <si>
+    <t>Offshore $/MWh</t>
+  </si>
+  <si>
+    <t>DPV $/MWh</t>
+  </si>
+  <si>
+    <t>UPV $/MWh</t>
+  </si>
+  <si>
+    <t>CSP $/MWh</t>
+  </si>
+  <si>
+    <t>Geo/Bio $/MWh</t>
+  </si>
+  <si>
+    <t>Coal $/kW-yr</t>
+  </si>
+  <si>
+    <t>NG CC $/kW-yr</t>
+  </si>
+  <si>
+    <t>NG GT $/kW-yr</t>
+  </si>
+  <si>
+    <t>Storage $/kW-yr</t>
+  </si>
+  <si>
+    <t>Hydro $/kW-yr</t>
+  </si>
+  <si>
+    <t>Nuclear $/kW-yr</t>
+  </si>
+  <si>
+    <t>Wind $/kW-yr</t>
+  </si>
+  <si>
+    <t>Offshore $/kW-yr</t>
+  </si>
+  <si>
+    <t>DPV $/kW-yr</t>
+  </si>
+  <si>
+    <t>UPV $/kW-yr</t>
+  </si>
+  <si>
+    <t>CSP $/kW-yr</t>
+  </si>
+  <si>
+    <t>Geo/Bio $/kW-yr</t>
+  </si>
+  <si>
+    <t>Coal $/kw</t>
+  </si>
+  <si>
+    <t>NG CC $/kw</t>
+  </si>
+  <si>
+    <t>NG GT $/kw</t>
+  </si>
+  <si>
+    <t>Storage $/kw</t>
+  </si>
+  <si>
+    <t>Hydro $/kw</t>
+  </si>
+  <si>
+    <t>Nuclear $/kw</t>
+  </si>
+  <si>
+    <t>Wind $/kw</t>
+  </si>
+  <si>
+    <t>Offshore $/kw</t>
+  </si>
+  <si>
+    <t>DPV $/kw</t>
+  </si>
+  <si>
+    <t>UPV $/kw</t>
+  </si>
+  <si>
+    <t>CSP $/kw</t>
+  </si>
+  <si>
+    <t>Geo/Bio $/kw</t>
+  </si>
+  <si>
+    <t>convert from 2017 to 2012 USD</t>
+  </si>
+  <si>
+    <t>For Preexisting costs:</t>
+  </si>
+  <si>
+    <t>FOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most of the technologies use the same cost for preexisting and newly built. I will do the same as applicable. </t>
+  </si>
+  <si>
+    <t>Exceptions:</t>
+  </si>
+  <si>
+    <t>Oil - preexisting is more expensive. I will keep the original EPS 15072 number.</t>
+  </si>
+  <si>
+    <t>Lignite and Hard Coal - preexisting is cheaper. I will keep the original EPS 30724 number.</t>
+  </si>
+  <si>
+    <t>Gas Peaker and Non Peaker - preexisting is slightly more expensive. I will keep the original EPS numbers of 16485 and 10359</t>
+  </si>
+  <si>
+    <t>VOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oil, Hard Coal, Gas - keep the original values because they are less than the newly built values. </t>
+  </si>
+  <si>
+    <t>Lignite - in the original EPS the new value was greater than the preexisting. In the updated numbers, the new value is a lot lower. So I changed the preexisting value to equal the new value, so that the preexisting would not be more expensive than the new.</t>
+  </si>
+  <si>
+    <t>Capital Cost</t>
+  </si>
+  <si>
+    <t>Lignite was originally calculated as some factor multiplied by hard coal costs. I kept that framework.</t>
+  </si>
+  <si>
+    <t>MSW - in the EIA data, the capital cost is 140% of a gas peaker cost, so I use that relationship</t>
+  </si>
+  <si>
+    <t>Oil - originally, oil uses the same capital cost as natural gas peaker. I kept that assumption.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="10">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
@@ -821,8 +983,9 @@
     <numFmt numFmtId="168" formatCode="###0;###0"/>
     <numFmt numFmtId="169" formatCode="###0.00;###0.00"/>
     <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1046,6 +1209,17 @@
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1566,7 +1740,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1719,6 +1893,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1745,234 +1922,234 @@
     </xf>
   </cellXfs>
   <cellStyles count="228">
-    <cellStyle name="20% - Accent1 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent1 2 2 2" xfId="151" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent1 2 2 2 2" xfId="173" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent1 2 2 2 2 2" xfId="217" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent1 2 2 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% - Accent1 2 2 3" xfId="162" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="20% - Accent1 2 2 3 2" xfId="206" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="20% - Accent1 2 2 4" xfId="184" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - Accent2 2 2 2" xfId="152" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="20% - Accent2 2 2 2 2" xfId="174" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="20% - Accent2 2 2 2 2 2" xfId="218" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="20% - Accent2 2 2 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20% - Accent2 2 2 3" xfId="163" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="20% - Accent2 2 2 3 2" xfId="207" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="20% - Accent2 2 2 4" xfId="185" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="20% - Accent3 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="20% - Accent3 2 2 2" xfId="153" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="20% - Accent3 2 2 2 2" xfId="175" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="20% - Accent3 2 2 2 2 2" xfId="219" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="20% - Accent3 2 2 2 3" xfId="197" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="20% - Accent3 2 2 3" xfId="164" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="20% - Accent3 2 2 3 2" xfId="208" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="20% - Accent3 2 2 4" xfId="186" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="20% - Accent4 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="20% - Accent4 2 2 2" xfId="154" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="20% - Accent4 2 2 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="20% - Accent4 2 2 2 2 2" xfId="220" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="20% - Accent4 2 2 2 3" xfId="198" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="20% - Accent4 2 2 3" xfId="165" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="20% - Accent4 2 2 3 2" xfId="209" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="20% - Accent4 2 2 4" xfId="187" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Calculated" xfId="24" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Comma 10" xfId="25" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Comma 10 2" xfId="155" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Comma 10 2 2" xfId="177" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Comma 10 2 2 2" xfId="221" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Comma 10 2 3" xfId="199" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Comma 10 3" xfId="166" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Comma 10 3 2" xfId="210" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Comma 10 4" xfId="188" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Comma 11" xfId="26" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Comma 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Comma 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Comma 2 2 2" xfId="156" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Comma 2 2 2 2" xfId="178" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Comma 2 2 2 2 2" xfId="222" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Comma 2 2 2 3" xfId="200" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Comma 2 2 3" xfId="167" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Comma 2 2 3 2" xfId="211" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Comma 2 2 4" xfId="189" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Comma 3" xfId="29" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Comma 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Comma 3 2 2" xfId="157" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Comma 3 2 2 2" xfId="179" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Comma 3 2 2 2 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Comma 3 2 2 3" xfId="201" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Comma 3 2 3" xfId="168" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Comma 3 2 3 2" xfId="212" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Comma 3 2 4" xfId="190" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Comma 4" xfId="31" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Comma 5" xfId="32" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Comma 6" xfId="33" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="Comma 7" xfId="34" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="Comma 8" xfId="35" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Comma 9" xfId="36" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Currency 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Currency 3" xfId="38" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="Currency 4" xfId="39" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="Currency 5" xfId="40" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Currency 6" xfId="41" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Currency 7" xfId="42" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Currency 8" xfId="43" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Currency 8 2" xfId="158" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Currency 8 2 2" xfId="180" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Currency 8 2 2 2" xfId="224" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Currency 8 2 3" xfId="202" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Currency 8 3" xfId="169" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Currency 8 3 2" xfId="213" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Currency 8 4" xfId="191" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="16"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="17"/>
+    <cellStyle name="20% - Accent1 2 2 2" xfId="151"/>
+    <cellStyle name="20% - Accent1 2 2 2 2" xfId="173"/>
+    <cellStyle name="20% - Accent1 2 2 2 2 2" xfId="217"/>
+    <cellStyle name="20% - Accent1 2 2 2 3" xfId="195"/>
+    <cellStyle name="20% - Accent1 2 2 3" xfId="162"/>
+    <cellStyle name="20% - Accent1 2 2 3 2" xfId="206"/>
+    <cellStyle name="20% - Accent1 2 2 4" xfId="184"/>
+    <cellStyle name="20% - Accent2 2" xfId="18"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="19"/>
+    <cellStyle name="20% - Accent2 2 2 2" xfId="152"/>
+    <cellStyle name="20% - Accent2 2 2 2 2" xfId="174"/>
+    <cellStyle name="20% - Accent2 2 2 2 2 2" xfId="218"/>
+    <cellStyle name="20% - Accent2 2 2 2 3" xfId="196"/>
+    <cellStyle name="20% - Accent2 2 2 3" xfId="163"/>
+    <cellStyle name="20% - Accent2 2 2 3 2" xfId="207"/>
+    <cellStyle name="20% - Accent2 2 2 4" xfId="185"/>
+    <cellStyle name="20% - Accent3 2" xfId="20"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="21"/>
+    <cellStyle name="20% - Accent3 2 2 2" xfId="153"/>
+    <cellStyle name="20% - Accent3 2 2 2 2" xfId="175"/>
+    <cellStyle name="20% - Accent3 2 2 2 2 2" xfId="219"/>
+    <cellStyle name="20% - Accent3 2 2 2 3" xfId="197"/>
+    <cellStyle name="20% - Accent3 2 2 3" xfId="164"/>
+    <cellStyle name="20% - Accent3 2 2 3 2" xfId="208"/>
+    <cellStyle name="20% - Accent3 2 2 4" xfId="186"/>
+    <cellStyle name="20% - Accent4 2" xfId="22"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="23"/>
+    <cellStyle name="20% - Accent4 2 2 2" xfId="154"/>
+    <cellStyle name="20% - Accent4 2 2 2 2" xfId="176"/>
+    <cellStyle name="20% - Accent4 2 2 2 2 2" xfId="220"/>
+    <cellStyle name="20% - Accent4 2 2 2 3" xfId="198"/>
+    <cellStyle name="20% - Accent4 2 2 3" xfId="165"/>
+    <cellStyle name="20% - Accent4 2 2 3 2" xfId="209"/>
+    <cellStyle name="20% - Accent4 2 2 4" xfId="187"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Calculated" xfId="24"/>
+    <cellStyle name="Comma 10" xfId="25"/>
+    <cellStyle name="Comma 10 2" xfId="155"/>
+    <cellStyle name="Comma 10 2 2" xfId="177"/>
+    <cellStyle name="Comma 10 2 2 2" xfId="221"/>
+    <cellStyle name="Comma 10 2 3" xfId="199"/>
+    <cellStyle name="Comma 10 3" xfId="166"/>
+    <cellStyle name="Comma 10 3 2" xfId="210"/>
+    <cellStyle name="Comma 10 4" xfId="188"/>
+    <cellStyle name="Comma 11" xfId="26"/>
+    <cellStyle name="Comma 2" xfId="27"/>
+    <cellStyle name="Comma 2 2" xfId="28"/>
+    <cellStyle name="Comma 2 2 2" xfId="156"/>
+    <cellStyle name="Comma 2 2 2 2" xfId="178"/>
+    <cellStyle name="Comma 2 2 2 2 2" xfId="222"/>
+    <cellStyle name="Comma 2 2 2 3" xfId="200"/>
+    <cellStyle name="Comma 2 2 3" xfId="167"/>
+    <cellStyle name="Comma 2 2 3 2" xfId="211"/>
+    <cellStyle name="Comma 2 2 4" xfId="189"/>
+    <cellStyle name="Comma 3" xfId="29"/>
+    <cellStyle name="Comma 3 2" xfId="30"/>
+    <cellStyle name="Comma 3 2 2" xfId="157"/>
+    <cellStyle name="Comma 3 2 2 2" xfId="179"/>
+    <cellStyle name="Comma 3 2 2 2 2" xfId="223"/>
+    <cellStyle name="Comma 3 2 2 3" xfId="201"/>
+    <cellStyle name="Comma 3 2 3" xfId="168"/>
+    <cellStyle name="Comma 3 2 3 2" xfId="212"/>
+    <cellStyle name="Comma 3 2 4" xfId="190"/>
+    <cellStyle name="Comma 4" xfId="31"/>
+    <cellStyle name="Comma 5" xfId="32"/>
+    <cellStyle name="Comma 6" xfId="33"/>
+    <cellStyle name="Comma 7" xfId="34"/>
+    <cellStyle name="Comma 8" xfId="35"/>
+    <cellStyle name="Comma 9" xfId="36"/>
+    <cellStyle name="Currency 2" xfId="37"/>
+    <cellStyle name="Currency 3" xfId="38"/>
+    <cellStyle name="Currency 4" xfId="39"/>
+    <cellStyle name="Currency 5" xfId="40"/>
+    <cellStyle name="Currency 6" xfId="41"/>
+    <cellStyle name="Currency 7" xfId="42"/>
+    <cellStyle name="Currency 8" xfId="43"/>
+    <cellStyle name="Currency 8 2" xfId="158"/>
+    <cellStyle name="Currency 8 2 2" xfId="180"/>
+    <cellStyle name="Currency 8 2 2 2" xfId="224"/>
+    <cellStyle name="Currency 8 2 3" xfId="202"/>
+    <cellStyle name="Currency 8 3" xfId="169"/>
+    <cellStyle name="Currency 8 3 2" xfId="213"/>
+    <cellStyle name="Currency 8 4" xfId="191"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Footnotes: all except top row" xfId="9" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Header: top rows" xfId="10" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Heading" xfId="44" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Heading 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Heading2" xfId="46" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Footnotes: all except top row" xfId="9"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Header: bottom row" xfId="2"/>
+    <cellStyle name="Header: top rows" xfId="10"/>
+    <cellStyle name="Heading" xfId="44"/>
+    <cellStyle name="Heading 2 2" xfId="45"/>
+    <cellStyle name="Heading2" xfId="46"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
-    <cellStyle name="Hyperlink 10" xfId="47" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Hyperlink 10 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Hyperlink 10 3" xfId="49" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Hyperlink 11" xfId="50" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Hyperlink 11 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Hyperlink 11 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Hyperlink 12" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Hyperlink 12 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Hyperlink 12 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Hyperlink 13" xfId="56" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Hyperlink 13 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Hyperlink 13 3" xfId="58" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Hyperlink 14" xfId="59" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Hyperlink 14 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Hyperlink 14 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Hyperlink 15" xfId="62" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Hyperlink 15 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Hyperlink 15 3" xfId="64" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Hyperlink 16" xfId="65" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Hyperlink 16 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Hyperlink 16 3" xfId="67" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Hyperlink 17" xfId="68" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Hyperlink 17 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Hyperlink 17 3" xfId="70" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Hyperlink 18" xfId="71" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Hyperlink 18 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Hyperlink 18 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="Hyperlink 19" xfId="74" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Hyperlink 19 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Hyperlink 19 3" xfId="76" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Hyperlink 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Hyperlink 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Hyperlink 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Hyperlink 2 4" xfId="77" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Hyperlink 20" xfId="80" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Hyperlink 20 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Hyperlink 20 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Hyperlink 21" xfId="83" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Hyperlink 21 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Hyperlink 21 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Hyperlink 22" xfId="86" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Hyperlink 22 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Hyperlink 22 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Hyperlink 23" xfId="89" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Hyperlink 23 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Hyperlink 23 3" xfId="91" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Hyperlink 24" xfId="92" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Hyperlink 25" xfId="93" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Hyperlink 26" xfId="94" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Hyperlink 27" xfId="95" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Hyperlink 28" xfId="96" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Hyperlink 29" xfId="97" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Hyperlink 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Hyperlink 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Hyperlink 3 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Hyperlink 30" xfId="101" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Hyperlink 31" xfId="102" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Hyperlink 32" xfId="103" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Hyperlink 33" xfId="104" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="Hyperlink 33 2" xfId="105" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="Hyperlink 33 3" xfId="106" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
-    <cellStyle name="Hyperlink 34" xfId="107" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
-    <cellStyle name="Hyperlink 34 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
-    <cellStyle name="Hyperlink 34 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
-    <cellStyle name="Hyperlink 34 4" xfId="110" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
-    <cellStyle name="Hyperlink 34 5" xfId="111" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
-    <cellStyle name="Hyperlink 4" xfId="112" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
-    <cellStyle name="Hyperlink 4 2" xfId="113" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
-    <cellStyle name="Hyperlink 4 3" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
-    <cellStyle name="Hyperlink 5" xfId="115" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
-    <cellStyle name="Hyperlink 5 2" xfId="116" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
-    <cellStyle name="Hyperlink 5 3" xfId="117" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
-    <cellStyle name="Hyperlink 6" xfId="118" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
-    <cellStyle name="Hyperlink 6 2" xfId="119" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
-    <cellStyle name="Hyperlink 6 3" xfId="120" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
-    <cellStyle name="Hyperlink 7" xfId="121" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
-    <cellStyle name="Hyperlink 7 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
-    <cellStyle name="Hyperlink 7 3" xfId="123" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
-    <cellStyle name="Hyperlink 8" xfId="124" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
-    <cellStyle name="Hyperlink 8 2" xfId="125" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
-    <cellStyle name="Hyperlink 8 3" xfId="126" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
-    <cellStyle name="Hyperlink 9" xfId="127" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
-    <cellStyle name="Hyperlink 9 2" xfId="128" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
-    <cellStyle name="Hyperlink 9 3" xfId="129" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
-    <cellStyle name="Input 2" xfId="130" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
-    <cellStyle name="Linked" xfId="131" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Hyperlink 10" xfId="47"/>
+    <cellStyle name="Hyperlink 10 2" xfId="48"/>
+    <cellStyle name="Hyperlink 10 3" xfId="49"/>
+    <cellStyle name="Hyperlink 11" xfId="50"/>
+    <cellStyle name="Hyperlink 11 2" xfId="51"/>
+    <cellStyle name="Hyperlink 11 3" xfId="52"/>
+    <cellStyle name="Hyperlink 12" xfId="53"/>
+    <cellStyle name="Hyperlink 12 2" xfId="54"/>
+    <cellStyle name="Hyperlink 12 3" xfId="55"/>
+    <cellStyle name="Hyperlink 13" xfId="56"/>
+    <cellStyle name="Hyperlink 13 2" xfId="57"/>
+    <cellStyle name="Hyperlink 13 3" xfId="58"/>
+    <cellStyle name="Hyperlink 14" xfId="59"/>
+    <cellStyle name="Hyperlink 14 2" xfId="60"/>
+    <cellStyle name="Hyperlink 14 3" xfId="61"/>
+    <cellStyle name="Hyperlink 15" xfId="62"/>
+    <cellStyle name="Hyperlink 15 2" xfId="63"/>
+    <cellStyle name="Hyperlink 15 3" xfId="64"/>
+    <cellStyle name="Hyperlink 16" xfId="65"/>
+    <cellStyle name="Hyperlink 16 2" xfId="66"/>
+    <cellStyle name="Hyperlink 16 3" xfId="67"/>
+    <cellStyle name="Hyperlink 17" xfId="68"/>
+    <cellStyle name="Hyperlink 17 2" xfId="69"/>
+    <cellStyle name="Hyperlink 17 3" xfId="70"/>
+    <cellStyle name="Hyperlink 18" xfId="71"/>
+    <cellStyle name="Hyperlink 18 2" xfId="72"/>
+    <cellStyle name="Hyperlink 18 3" xfId="73"/>
+    <cellStyle name="Hyperlink 19" xfId="74"/>
+    <cellStyle name="Hyperlink 19 2" xfId="75"/>
+    <cellStyle name="Hyperlink 19 3" xfId="76"/>
+    <cellStyle name="Hyperlink 2" xfId="11"/>
+    <cellStyle name="Hyperlink 2 2" xfId="78"/>
+    <cellStyle name="Hyperlink 2 3" xfId="79"/>
+    <cellStyle name="Hyperlink 2 4" xfId="77"/>
+    <cellStyle name="Hyperlink 20" xfId="80"/>
+    <cellStyle name="Hyperlink 20 2" xfId="81"/>
+    <cellStyle name="Hyperlink 20 3" xfId="82"/>
+    <cellStyle name="Hyperlink 21" xfId="83"/>
+    <cellStyle name="Hyperlink 21 2" xfId="84"/>
+    <cellStyle name="Hyperlink 21 3" xfId="85"/>
+    <cellStyle name="Hyperlink 22" xfId="86"/>
+    <cellStyle name="Hyperlink 22 2" xfId="87"/>
+    <cellStyle name="Hyperlink 22 3" xfId="88"/>
+    <cellStyle name="Hyperlink 23" xfId="89"/>
+    <cellStyle name="Hyperlink 23 2" xfId="90"/>
+    <cellStyle name="Hyperlink 23 3" xfId="91"/>
+    <cellStyle name="Hyperlink 24" xfId="92"/>
+    <cellStyle name="Hyperlink 25" xfId="93"/>
+    <cellStyle name="Hyperlink 26" xfId="94"/>
+    <cellStyle name="Hyperlink 27" xfId="95"/>
+    <cellStyle name="Hyperlink 28" xfId="96"/>
+    <cellStyle name="Hyperlink 29" xfId="97"/>
+    <cellStyle name="Hyperlink 3" xfId="98"/>
+    <cellStyle name="Hyperlink 3 2" xfId="99"/>
+    <cellStyle name="Hyperlink 3 3" xfId="100"/>
+    <cellStyle name="Hyperlink 30" xfId="101"/>
+    <cellStyle name="Hyperlink 31" xfId="102"/>
+    <cellStyle name="Hyperlink 32" xfId="103"/>
+    <cellStyle name="Hyperlink 33" xfId="104"/>
+    <cellStyle name="Hyperlink 33 2" xfId="105"/>
+    <cellStyle name="Hyperlink 33 3" xfId="106"/>
+    <cellStyle name="Hyperlink 34" xfId="107"/>
+    <cellStyle name="Hyperlink 34 2" xfId="108"/>
+    <cellStyle name="Hyperlink 34 3" xfId="109"/>
+    <cellStyle name="Hyperlink 34 4" xfId="110"/>
+    <cellStyle name="Hyperlink 34 5" xfId="111"/>
+    <cellStyle name="Hyperlink 4" xfId="112"/>
+    <cellStyle name="Hyperlink 4 2" xfId="113"/>
+    <cellStyle name="Hyperlink 4 3" xfId="114"/>
+    <cellStyle name="Hyperlink 5" xfId="115"/>
+    <cellStyle name="Hyperlink 5 2" xfId="116"/>
+    <cellStyle name="Hyperlink 5 3" xfId="117"/>
+    <cellStyle name="Hyperlink 6" xfId="118"/>
+    <cellStyle name="Hyperlink 6 2" xfId="119"/>
+    <cellStyle name="Hyperlink 6 3" xfId="120"/>
+    <cellStyle name="Hyperlink 7" xfId="121"/>
+    <cellStyle name="Hyperlink 7 2" xfId="122"/>
+    <cellStyle name="Hyperlink 7 3" xfId="123"/>
+    <cellStyle name="Hyperlink 8" xfId="124"/>
+    <cellStyle name="Hyperlink 8 2" xfId="125"/>
+    <cellStyle name="Hyperlink 8 3" xfId="126"/>
+    <cellStyle name="Hyperlink 9" xfId="127"/>
+    <cellStyle name="Hyperlink 9 2" xfId="128"/>
+    <cellStyle name="Hyperlink 9 3" xfId="129"/>
+    <cellStyle name="Input 2" xfId="130"/>
+    <cellStyle name="Linked" xfId="131"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="15" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
-    <cellStyle name="Normal 2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
-    <cellStyle name="Normal 2 2 2" xfId="132" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="159" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
-    <cellStyle name="Normal 2 2 2 2 2" xfId="181" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
-    <cellStyle name="Normal 2 2 2 2 2 2" xfId="225" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
-    <cellStyle name="Normal 2 2 2 2 3" xfId="203" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="170" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
-    <cellStyle name="Normal 2 2 2 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
-    <cellStyle name="Normal 2 2 2 4" xfId="192" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
-    <cellStyle name="Normal 3" xfId="133" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
-    <cellStyle name="Normal 4" xfId="134" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
-    <cellStyle name="Normal 5" xfId="135" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
-    <cellStyle name="Normal 6" xfId="136" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
-    <cellStyle name="Normal 6 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
-    <cellStyle name="Normal 6 2 2" xfId="182" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
-    <cellStyle name="Normal 6 2 2 2" xfId="226" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
-    <cellStyle name="Normal 6 2 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
-    <cellStyle name="Normal 6 3" xfId="171" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
-    <cellStyle name="Normal 6 3 2" xfId="215" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
-    <cellStyle name="Normal 6 4" xfId="193" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
-    <cellStyle name="Normal 7" xfId="137" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
-    <cellStyle name="Normal 8" xfId="138" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
-    <cellStyle name="Normal Small" xfId="139" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
-    <cellStyle name="Percent 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
-    <cellStyle name="Percent 2 2" xfId="141" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
-    <cellStyle name="Percent 2 3" xfId="142" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
-    <cellStyle name="Percent 2 4" xfId="161" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
-    <cellStyle name="Percent 2 4 2" xfId="183" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
-    <cellStyle name="Percent 2 4 2 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
-    <cellStyle name="Percent 2 4 3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
-    <cellStyle name="Percent 2 5" xfId="172" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
-    <cellStyle name="Percent 2 5 2" xfId="216" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
-    <cellStyle name="Percent 2 6" xfId="194" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
-    <cellStyle name="Percent 3" xfId="143" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
-    <cellStyle name="Percent 3 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
-    <cellStyle name="Results" xfId="145" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
-    <cellStyle name="Section Break" xfId="12" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
-    <cellStyle name="Section Break: parent row" xfId="13" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
-    <cellStyle name="Table title" xfId="1" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
-    <cellStyle name="Title 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
-    <cellStyle name="Title 3" xfId="147" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
-    <cellStyle name="Unit" xfId="148" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
-    <cellStyle name="UserInput" xfId="149" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
-    <cellStyle name="Variable" xfId="150" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="Normal 2" xfId="15"/>
+    <cellStyle name="Normal 2 2" xfId="14"/>
+    <cellStyle name="Normal 2 2 2" xfId="132"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="159"/>
+    <cellStyle name="Normal 2 2 2 2 2" xfId="181"/>
+    <cellStyle name="Normal 2 2 2 2 2 2" xfId="225"/>
+    <cellStyle name="Normal 2 2 2 2 3" xfId="203"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="170"/>
+    <cellStyle name="Normal 2 2 2 3 2" xfId="214"/>
+    <cellStyle name="Normal 2 2 2 4" xfId="192"/>
+    <cellStyle name="Normal 3" xfId="133"/>
+    <cellStyle name="Normal 4" xfId="134"/>
+    <cellStyle name="Normal 5" xfId="135"/>
+    <cellStyle name="Normal 6" xfId="136"/>
+    <cellStyle name="Normal 6 2" xfId="160"/>
+    <cellStyle name="Normal 6 2 2" xfId="182"/>
+    <cellStyle name="Normal 6 2 2 2" xfId="226"/>
+    <cellStyle name="Normal 6 2 3" xfId="204"/>
+    <cellStyle name="Normal 6 3" xfId="171"/>
+    <cellStyle name="Normal 6 3 2" xfId="215"/>
+    <cellStyle name="Normal 6 4" xfId="193"/>
+    <cellStyle name="Normal 7" xfId="137"/>
+    <cellStyle name="Normal 8" xfId="138"/>
+    <cellStyle name="Normal Small" xfId="139"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Percent 2" xfId="140"/>
+    <cellStyle name="Percent 2 2" xfId="141"/>
+    <cellStyle name="Percent 2 3" xfId="142"/>
+    <cellStyle name="Percent 2 4" xfId="161"/>
+    <cellStyle name="Percent 2 4 2" xfId="183"/>
+    <cellStyle name="Percent 2 4 2 2" xfId="227"/>
+    <cellStyle name="Percent 2 4 3" xfId="205"/>
+    <cellStyle name="Percent 2 5" xfId="172"/>
+    <cellStyle name="Percent 2 5 2" xfId="216"/>
+    <cellStyle name="Percent 2 6" xfId="194"/>
+    <cellStyle name="Percent 3" xfId="143"/>
+    <cellStyle name="Percent 3 2" xfId="144"/>
+    <cellStyle name="Results" xfId="145"/>
+    <cellStyle name="Section Break" xfId="12"/>
+    <cellStyle name="Section Break: parent row" xfId="13"/>
+    <cellStyle name="Table title" xfId="1"/>
+    <cellStyle name="Title 2" xfId="146"/>
+    <cellStyle name="Title 3" xfId="147"/>
+    <cellStyle name="Unit" xfId="148"/>
+    <cellStyle name="UserInput" xfId="149"/>
+    <cellStyle name="Variable" xfId="150"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -2023,11 +2200,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Table Style 1" pivot="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="3"/>
       <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2119,23 +2296,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2171,23 +2331,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2363,21 +2506,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="78.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="77.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.7109375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.1328125" style="2"/>
+    <col min="2" max="2" width="78.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="77.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.73046875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="56.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.73046875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2528,21 +2673,21 @@
       </c>
       <c r="D22" s="23"/>
     </row>
-    <row r="23" spans="1:11" ht="45">
+    <row r="23" spans="1:11" ht="42.75">
       <c r="A23" s="7"/>
       <c r="B23" s="50" t="s">
         <v>62</v>
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1">
+    <row r="24" spans="1:11" ht="14.65" thickBot="1">
       <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
         <v>231</v>
       </c>
       <c r="D24" s="23"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1">
+    <row r="25" spans="1:11" ht="14.65" thickBot="1">
       <c r="A25" s="7"/>
       <c r="B25" s="21" t="s">
         <v>29</v>
@@ -3306,11 +3451,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" display="http://rredc.nrel.gov/solar/calculators/pvwatts/system.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D16" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B23" r:id="rId1" display="http://rredc.nrel.gov/solar/calculators/pvwatts/system.html"/>
+    <hyperlink ref="B16" r:id="rId2"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="D9" r:id="rId4"/>
+    <hyperlink ref="D16" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
@@ -3318,24 +3463,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="65.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.73046875" customWidth="1"/>
+    <col min="2" max="2" width="26.73046875" style="23" customWidth="1"/>
+    <col min="3" max="3" width="40.86328125" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" customWidth="1"/>
+    <col min="5" max="5" width="15.265625" customWidth="1"/>
+    <col min="6" max="6" width="14.265625" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" customWidth="1"/>
+    <col min="9" max="9" width="65.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="58" customFormat="1" ht="30">
+    <row r="1" spans="1:9" s="58" customFormat="1" ht="28.5">
       <c r="A1" s="57" t="s">
         <v>41</v>
       </c>
@@ -3783,15 +3930,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="19" customFormat="1">
@@ -3849,16 +3996,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="47" customWidth="1"/>
+    <col min="1" max="2" width="20.73046875" style="47" customWidth="1"/>
     <col min="3" max="3" width="21" style="47" customWidth="1"/>
-    <col min="4" max="8" width="20.7109375" style="47" customWidth="1"/>
+    <col min="4" max="8" width="20.73046875" style="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3883,43 +4030,43 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="45">
+    <row r="2" spans="1:8" ht="27.75">
       <c r="A2" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="67" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30">
+    <row r="3" spans="1:8">
       <c r="A3" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="65"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="68"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="27" t="s">
@@ -3935,7 +4082,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
     </row>
-    <row r="5" spans="1:8" ht="28.5">
+    <row r="5" spans="1:8" ht="27">
       <c r="A5" s="30" t="s">
         <v>77</v>
       </c>
@@ -3961,7 +4108,7 @@
         <v>2848907</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5">
+    <row r="6" spans="1:8" ht="27">
       <c r="A6" s="32" t="s">
         <v>78</v>
       </c>
@@ -3999,7 +4146,7 @@
       <c r="G7" s="35"/>
       <c r="H7" s="35"/>
     </row>
-    <row r="8" spans="1:8" ht="28.5">
+    <row r="8" spans="1:8" ht="27">
       <c r="A8" s="36" t="s">
         <v>80</v>
       </c>
@@ -4063,7 +4210,7 @@
         <v>30210</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30">
+    <row r="11" spans="1:8" ht="27.75">
       <c r="A11" s="39" t="s">
         <v>109</v>
       </c>
@@ -4101,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="42.75">
+    <row r="13" spans="1:8" ht="40.5">
       <c r="A13" s="36" t="s">
         <v>83</v>
       </c>
@@ -4179,7 +4326,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.5">
+    <row r="16" spans="1:8" ht="27">
       <c r="A16" s="36" t="s">
         <v>86</v>
       </c>
@@ -4205,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.5">
+    <row r="17" spans="1:8">
       <c r="A17" s="36" t="s">
         <v>87</v>
       </c>
@@ -4231,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.5">
+    <row r="18" spans="1:8">
       <c r="A18" s="36" t="s">
         <v>88</v>
       </c>
@@ -4309,7 +4456,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.5">
+    <row r="21" spans="1:8" ht="27">
       <c r="A21" s="36" t="s">
         <v>91</v>
       </c>
@@ -4517,7 +4664,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="28.5">
+    <row r="29" spans="1:8" ht="27">
       <c r="A29" s="32" t="s">
         <v>101</v>
       </c>
@@ -4543,7 +4690,7 @@
         <v>35878</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="28.5">
+    <row r="30" spans="1:8" ht="27">
       <c r="A30" s="43" t="s">
         <v>101</v>
       </c>
@@ -4622,17 +4769,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="23" customWidth="1"/>
+    <col min="1" max="1" width="32.73046875" customWidth="1"/>
+    <col min="2" max="2" width="28.86328125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="23" customFormat="1">
@@ -10626,20 +10773,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="13" width="14.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="53" customFormat="1">
+      <c r="A3" s="53">
+        <v>0.94</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" s="64" t="s">
+        <v>242</v>
+      </c>
+      <c r="J5" s="64" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" s="64" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="64" t="s">
+        <v>245</v>
+      </c>
+      <c r="M5" s="64" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="65">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="66">
+        <v>5</v>
+      </c>
+      <c r="C6" s="66">
+        <v>3</v>
+      </c>
+      <c r="D6" s="66">
+        <v>7</v>
+      </c>
+      <c r="E6" s="66">
+        <v>2.7930000000000001</v>
+      </c>
+      <c r="F6" s="66">
+        <v>2</v>
+      </c>
+      <c r="G6" s="66">
+        <v>0</v>
+      </c>
+      <c r="H6" s="66">
+        <v>0</v>
+      </c>
+      <c r="I6" s="66">
+        <v>0</v>
+      </c>
+      <c r="J6" s="66">
+        <v>0</v>
+      </c>
+      <c r="K6" s="66">
+        <v>0</v>
+      </c>
+      <c r="L6" s="66">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M6" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="65">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="66">
+        <v>5</v>
+      </c>
+      <c r="C7" s="66">
+        <v>3</v>
+      </c>
+      <c r="D7" s="66">
+        <v>7</v>
+      </c>
+      <c r="E7" s="66">
+        <v>2.4980000000000002</v>
+      </c>
+      <c r="F7" s="66">
+        <v>2</v>
+      </c>
+      <c r="G7" s="66">
+        <v>0</v>
+      </c>
+      <c r="H7" s="66">
+        <v>0</v>
+      </c>
+      <c r="I7" s="66">
+        <v>0</v>
+      </c>
+      <c r="J7" s="66">
+        <v>0</v>
+      </c>
+      <c r="K7" s="66">
+        <v>0</v>
+      </c>
+      <c r="L7" s="66">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M7" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="65">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="66">
+        <v>5</v>
+      </c>
+      <c r="C8" s="66">
+        <v>3</v>
+      </c>
+      <c r="D8" s="66">
+        <v>7</v>
+      </c>
+      <c r="E8" s="66">
+        <v>2.202</v>
+      </c>
+      <c r="F8" s="66">
+        <v>2</v>
+      </c>
+      <c r="G8" s="66">
+        <v>0</v>
+      </c>
+      <c r="H8" s="66">
+        <v>0</v>
+      </c>
+      <c r="I8" s="66">
+        <v>0</v>
+      </c>
+      <c r="J8" s="66">
+        <v>0</v>
+      </c>
+      <c r="K8" s="66">
+        <v>0</v>
+      </c>
+      <c r="L8" s="66">
+        <v>3.5</v>
+      </c>
+      <c r="M8" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="65">
+        <v>2030</v>
+      </c>
+      <c r="B9" s="66">
+        <v>5</v>
+      </c>
+      <c r="C9" s="66">
+        <v>3</v>
+      </c>
+      <c r="D9" s="66">
+        <v>7</v>
+      </c>
+      <c r="E9" s="66">
+        <v>1.907</v>
+      </c>
+      <c r="F9" s="66">
+        <v>2</v>
+      </c>
+      <c r="G9" s="66">
+        <v>0</v>
+      </c>
+      <c r="H9" s="66">
+        <v>0</v>
+      </c>
+      <c r="I9" s="66">
+        <v>0</v>
+      </c>
+      <c r="J9" s="66">
+        <v>0</v>
+      </c>
+      <c r="K9" s="66">
+        <v>0</v>
+      </c>
+      <c r="L9" s="66">
+        <v>3.5</v>
+      </c>
+      <c r="M9" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="65">
+        <v>2035</v>
+      </c>
+      <c r="B10" s="66">
+        <v>5</v>
+      </c>
+      <c r="C10" s="66">
+        <v>3</v>
+      </c>
+      <c r="D10" s="66">
+        <v>7</v>
+      </c>
+      <c r="E10" s="66">
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="F10" s="66">
+        <v>2</v>
+      </c>
+      <c r="G10" s="66">
+        <v>0</v>
+      </c>
+      <c r="H10" s="66">
+        <v>0</v>
+      </c>
+      <c r="I10" s="66">
+        <v>0</v>
+      </c>
+      <c r="J10" s="66">
+        <v>0</v>
+      </c>
+      <c r="K10" s="66">
+        <v>0</v>
+      </c>
+      <c r="L10" s="66">
+        <v>3.5</v>
+      </c>
+      <c r="M10" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="65">
+        <v>2040</v>
+      </c>
+      <c r="B11" s="66">
+        <v>5</v>
+      </c>
+      <c r="C11" s="66">
+        <v>3</v>
+      </c>
+      <c r="D11" s="66">
+        <v>7</v>
+      </c>
+      <c r="E11" s="66">
+        <v>1.3169999999999999</v>
+      </c>
+      <c r="F11" s="66">
+        <v>2</v>
+      </c>
+      <c r="G11" s="66">
+        <v>0</v>
+      </c>
+      <c r="H11" s="66">
+        <v>0</v>
+      </c>
+      <c r="I11" s="66">
+        <v>0</v>
+      </c>
+      <c r="J11" s="66">
+        <v>0</v>
+      </c>
+      <c r="K11" s="66">
+        <v>0</v>
+      </c>
+      <c r="L11" s="66">
+        <v>3.5</v>
+      </c>
+      <c r="M11" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="65">
+        <v>2045</v>
+      </c>
+      <c r="B12" s="66">
+        <v>5</v>
+      </c>
+      <c r="C12" s="66">
+        <v>3</v>
+      </c>
+      <c r="D12" s="66">
+        <v>7</v>
+      </c>
+      <c r="E12" s="66">
+        <v>1.3169999999999999</v>
+      </c>
+      <c r="F12" s="66">
+        <v>2</v>
+      </c>
+      <c r="G12" s="66">
+        <v>0</v>
+      </c>
+      <c r="H12" s="66">
+        <v>0</v>
+      </c>
+      <c r="I12" s="66">
+        <v>0</v>
+      </c>
+      <c r="J12" s="66">
+        <v>0</v>
+      </c>
+      <c r="K12" s="66">
+        <v>0</v>
+      </c>
+      <c r="L12" s="66">
+        <v>3.5</v>
+      </c>
+      <c r="M12" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="65">
+        <v>2050</v>
+      </c>
+      <c r="B13" s="66">
+        <v>5</v>
+      </c>
+      <c r="C13" s="66">
+        <v>3</v>
+      </c>
+      <c r="D13" s="66">
+        <v>7</v>
+      </c>
+      <c r="E13" s="66">
+        <v>1.3169999999999999</v>
+      </c>
+      <c r="F13" s="66">
+        <v>2</v>
+      </c>
+      <c r="G13" s="66">
+        <v>0</v>
+      </c>
+      <c r="H13" s="66">
+        <v>0</v>
+      </c>
+      <c r="I13" s="66">
+        <v>0</v>
+      </c>
+      <c r="J13" s="66">
+        <v>0</v>
+      </c>
+      <c r="K13" s="66">
+        <v>0</v>
+      </c>
+      <c r="L13" s="66">
+        <v>3.5</v>
+      </c>
+      <c r="M13" s="66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="64" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="G15" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="H15" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="I15" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="K15" s="64" t="s">
+        <v>256</v>
+      </c>
+      <c r="L15" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="M15" s="64" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="65">
+        <v>2018</v>
+      </c>
+      <c r="B16" s="66">
+        <v>33</v>
+      </c>
+      <c r="C16" s="66">
+        <v>11</v>
+      </c>
+      <c r="D16" s="66">
+        <v>12</v>
+      </c>
+      <c r="E16" s="66">
+        <v>9.1769999999999996</v>
+      </c>
+      <c r="F16" s="66">
+        <v>101</v>
+      </c>
+      <c r="G16" s="66">
+        <v>38.381999999999998</v>
+      </c>
+      <c r="H16" s="66">
+        <v>42.853999999999999</v>
+      </c>
+      <c r="I16" s="66">
+        <v>92.581999999999994</v>
+      </c>
+      <c r="J16" s="66">
+        <v>19.289000000000001</v>
+      </c>
+      <c r="K16" s="66">
+        <v>13.803000000000001</v>
+      </c>
+      <c r="L16" s="66">
+        <v>66</v>
+      </c>
+      <c r="M16" s="66">
+        <v>169.17099999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="65">
+        <v>2020</v>
+      </c>
+      <c r="B17" s="66">
+        <v>33</v>
+      </c>
+      <c r="C17" s="66">
+        <v>11</v>
+      </c>
+      <c r="D17" s="66">
+        <v>12</v>
+      </c>
+      <c r="E17" s="66">
+        <v>8.6449999999999996</v>
+      </c>
+      <c r="F17" s="66">
+        <v>101</v>
+      </c>
+      <c r="G17" s="66">
+        <v>35.811999999999998</v>
+      </c>
+      <c r="H17" s="66">
+        <v>41.442</v>
+      </c>
+      <c r="I17" s="66">
+        <v>86.642999999999986</v>
+      </c>
+      <c r="J17" s="66">
+        <v>15.023</v>
+      </c>
+      <c r="K17" s="66">
+        <v>10.68</v>
+      </c>
+      <c r="L17" s="66">
+        <v>66</v>
+      </c>
+      <c r="M17" s="66">
+        <v>169.17099999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="65">
+        <v>2025</v>
+      </c>
+      <c r="B18" s="66">
+        <v>33</v>
+      </c>
+      <c r="C18" s="66">
+        <v>11</v>
+      </c>
+      <c r="D18" s="66">
+        <v>12</v>
+      </c>
+      <c r="E18" s="66">
+        <v>8.1129999999999995</v>
+      </c>
+      <c r="F18" s="66">
+        <v>101</v>
+      </c>
+      <c r="G18" s="66">
+        <v>30.114000000000001</v>
+      </c>
+      <c r="H18" s="66">
+        <v>37.911000000000001</v>
+      </c>
+      <c r="I18" s="66">
+        <v>73.411000000000001</v>
+      </c>
+      <c r="J18" s="66">
+        <v>10.827</v>
+      </c>
+      <c r="K18" s="66">
+        <v>8.6820000000000004</v>
+      </c>
+      <c r="L18" s="66">
+        <v>54.444000000000003</v>
+      </c>
+      <c r="M18" s="66">
+        <v>169.17099999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="65">
+        <v>2030</v>
+      </c>
+      <c r="B19" s="66">
+        <v>33</v>
+      </c>
+      <c r="C19" s="66">
+        <v>11</v>
+      </c>
+      <c r="D19" s="66">
+        <v>12</v>
+      </c>
+      <c r="E19" s="66">
+        <v>7.5810000000000004</v>
+      </c>
+      <c r="F19" s="66">
+        <v>101</v>
+      </c>
+      <c r="G19" s="66">
+        <v>25.323</v>
+      </c>
+      <c r="H19" s="66">
+        <v>34.380000000000003</v>
+      </c>
+      <c r="I19" s="66">
+        <v>62.198999999999998</v>
+      </c>
+      <c r="J19" s="66">
+        <v>7.0590000000000002</v>
+      </c>
+      <c r="K19" s="66">
+        <v>6.6840000000000002</v>
+      </c>
+      <c r="L19" s="66">
+        <v>40</v>
+      </c>
+      <c r="M19" s="66">
+        <v>169.17099999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="65">
+        <v>2035</v>
+      </c>
+      <c r="B20" s="66">
+        <v>33</v>
+      </c>
+      <c r="C20" s="66">
+        <v>11</v>
+      </c>
+      <c r="D20" s="66">
+        <v>12</v>
+      </c>
+      <c r="E20" s="66">
+        <v>7.0490000000000004</v>
+      </c>
+      <c r="F20" s="66">
+        <v>101</v>
+      </c>
+      <c r="G20" s="66">
+        <v>21.294</v>
+      </c>
+      <c r="H20" s="66">
+        <v>31.802</v>
+      </c>
+      <c r="I20" s="66">
+        <v>52.7</v>
+      </c>
+      <c r="J20" s="66">
+        <v>6.1989999999999998</v>
+      </c>
+      <c r="K20" s="66">
+        <v>5.7279999999999998</v>
+      </c>
+      <c r="L20" s="66">
+        <v>40</v>
+      </c>
+      <c r="M20" s="66">
+        <v>169.17099999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="65">
+        <v>2040</v>
+      </c>
+      <c r="B21" s="66">
+        <v>33</v>
+      </c>
+      <c r="C21" s="66">
+        <v>11</v>
+      </c>
+      <c r="D21" s="66">
+        <v>12</v>
+      </c>
+      <c r="E21" s="66">
+        <v>6.5170000000000003</v>
+      </c>
+      <c r="F21" s="66">
+        <v>101</v>
+      </c>
+      <c r="G21" s="66">
+        <v>20.74</v>
+      </c>
+      <c r="H21" s="66">
+        <v>29.22300000000001</v>
+      </c>
+      <c r="I21" s="66">
+        <v>44.652000000000001</v>
+      </c>
+      <c r="J21" s="66">
+        <v>5.3390000000000004</v>
+      </c>
+      <c r="K21" s="66">
+        <v>5.0030000000000001</v>
+      </c>
+      <c r="L21" s="66">
+        <v>40</v>
+      </c>
+      <c r="M21" s="66">
+        <v>169.17099999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="65">
+        <v>2045</v>
+      </c>
+      <c r="B22" s="66">
+        <v>33</v>
+      </c>
+      <c r="C22" s="66">
+        <v>11</v>
+      </c>
+      <c r="D22" s="66">
+        <v>12</v>
+      </c>
+      <c r="E22" s="66">
+        <v>6.5170000000000003</v>
+      </c>
+      <c r="F22" s="66">
+        <v>101</v>
+      </c>
+      <c r="G22" s="66">
+        <v>20.201000000000001</v>
+      </c>
+      <c r="H22" s="66">
+        <v>26.645</v>
+      </c>
+      <c r="I22" s="66">
+        <v>37.832000000000001</v>
+      </c>
+      <c r="J22" s="66">
+        <v>4.9269999999999996</v>
+      </c>
+      <c r="K22" s="66">
+        <v>4.5629999999999997</v>
+      </c>
+      <c r="L22" s="66">
+        <v>40</v>
+      </c>
+      <c r="M22" s="66">
+        <v>169.17099999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="65">
+        <v>2050</v>
+      </c>
+      <c r="B23" s="66">
+        <v>33</v>
+      </c>
+      <c r="C23" s="66">
+        <v>11</v>
+      </c>
+      <c r="D23" s="66">
+        <v>12</v>
+      </c>
+      <c r="E23" s="66">
+        <v>6.5170000000000003</v>
+      </c>
+      <c r="F23" s="66">
+        <v>101</v>
+      </c>
+      <c r="G23" s="66">
+        <v>19.675999999999998</v>
+      </c>
+      <c r="H23" s="66">
+        <v>24.065999999999999</v>
+      </c>
+      <c r="I23" s="66">
+        <v>32.055</v>
+      </c>
+      <c r="J23" s="66">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="K23" s="66">
+        <v>4.2140000000000004</v>
+      </c>
+      <c r="L23" s="66">
+        <v>40</v>
+      </c>
+      <c r="M23" s="66">
+        <v>169.17099999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>261</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>264</v>
+      </c>
+      <c r="H25" s="64" t="s">
+        <v>265</v>
+      </c>
+      <c r="I25" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="J25" s="64" t="s">
+        <v>267</v>
+      </c>
+      <c r="K25" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="L25" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="M25" s="64" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="65">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="66">
+        <v>3694.1819999999998</v>
+      </c>
+      <c r="C26" s="66">
+        <v>899.99800000000005</v>
+      </c>
+      <c r="D26" s="66">
+        <v>897.70299999999997</v>
+      </c>
+      <c r="E26" s="66">
+        <v>667.97</v>
+      </c>
+      <c r="F26" s="66">
+        <v>3787.0140000000001</v>
+      </c>
+      <c r="G26" s="66">
+        <v>6156.3</v>
+      </c>
+      <c r="H26" s="66">
+        <v>1538.462</v>
+      </c>
+      <c r="I26" s="66">
+        <v>2826.6640000000002</v>
+      </c>
+      <c r="J26" s="66">
+        <v>2212.6550000000002</v>
+      </c>
+      <c r="K26" s="66">
+        <v>1099.665</v>
+      </c>
+      <c r="L26" s="66">
+        <v>7248.1330000000007</v>
+      </c>
+      <c r="M26" s="66">
+        <v>5512.2980000000007</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="65">
+        <v>2020</v>
+      </c>
+      <c r="B27" s="66">
+        <v>3660.482</v>
+      </c>
+      <c r="C27" s="66">
+        <v>887.11899999999991</v>
+      </c>
+      <c r="D27" s="66">
+        <v>902.71399999999994</v>
+      </c>
+      <c r="E27" s="66">
+        <v>577.83000000000004</v>
+      </c>
+      <c r="F27" s="66">
+        <v>3688.65</v>
+      </c>
+      <c r="G27" s="66">
+        <v>6069.4669999999996</v>
+      </c>
+      <c r="H27" s="66">
+        <v>1465.385</v>
+      </c>
+      <c r="I27" s="66">
+        <v>2648.1689999999999</v>
+      </c>
+      <c r="J27" s="66">
+        <v>1724.0229999999999</v>
+      </c>
+      <c r="K27" s="66">
+        <v>890.01300000000003</v>
+      </c>
+      <c r="L27" s="66">
+        <v>6622.2109999999993</v>
+      </c>
+      <c r="M27" s="66">
+        <v>5383.7109999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="65">
+        <v>2025</v>
+      </c>
+      <c r="B28" s="66">
+        <v>3594.43</v>
+      </c>
+      <c r="C28" s="66">
+        <v>851.00100000000009</v>
+      </c>
+      <c r="D28" s="66">
+        <v>854.89399999999989</v>
+      </c>
+      <c r="E28" s="66">
+        <v>435.4</v>
+      </c>
+      <c r="F28" s="66">
+        <v>3442.74</v>
+      </c>
+      <c r="G28" s="66">
+        <v>5882.3690000000006</v>
+      </c>
+      <c r="H28" s="66">
+        <v>1282.692</v>
+      </c>
+      <c r="I28" s="66">
+        <v>2249.6999999999998</v>
+      </c>
+      <c r="J28" s="66">
+        <v>1233.6890000000001</v>
+      </c>
+      <c r="K28" s="66">
+        <v>723.51699999999994</v>
+      </c>
+      <c r="L28" s="66">
+        <v>4928.7969999999996</v>
+      </c>
+      <c r="M28" s="66">
+        <v>5062.2440000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="65">
+        <v>2030</v>
+      </c>
+      <c r="B29" s="66">
+        <v>3558.058</v>
+      </c>
+      <c r="C29" s="66">
+        <v>833.47</v>
+      </c>
+      <c r="D29" s="66">
+        <v>833.29199999999992</v>
+      </c>
+      <c r="E29" s="66">
+        <v>364.65</v>
+      </c>
+      <c r="F29" s="66">
+        <v>3196.83</v>
+      </c>
+      <c r="G29" s="66">
+        <v>5743.866</v>
+      </c>
+      <c r="H29" s="66">
+        <v>1100</v>
+      </c>
+      <c r="I29" s="66">
+        <v>1911.1880000000001</v>
+      </c>
+      <c r="J29" s="66">
+        <v>786.26</v>
+      </c>
+      <c r="K29" s="66">
+        <v>557.02099999999996</v>
+      </c>
+      <c r="L29" s="66">
+        <v>3197.1880000000001</v>
+      </c>
+      <c r="M29" s="66">
+        <v>4740.777</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="65">
+        <v>2035</v>
+      </c>
+      <c r="B30" s="66">
+        <v>3511.6</v>
+      </c>
+      <c r="C30" s="66">
+        <v>819.56700000000001</v>
+      </c>
+      <c r="D30" s="66">
+        <v>818.02499999999998</v>
+      </c>
+      <c r="E30" s="66">
+        <v>341.86</v>
+      </c>
+      <c r="F30" s="66">
+        <v>2950.92</v>
+      </c>
+      <c r="G30" s="66">
+        <v>5588.8719999999994</v>
+      </c>
+      <c r="H30" s="66">
+        <v>1047.127</v>
+      </c>
+      <c r="I30" s="66">
+        <v>1623.6120000000001</v>
+      </c>
+      <c r="J30" s="66">
+        <v>690.52800000000002</v>
+      </c>
+      <c r="K30" s="66">
+        <v>477.36500000000001</v>
+      </c>
+      <c r="L30" s="66">
+        <v>3038.2260000000001</v>
+      </c>
+      <c r="M30" s="66">
+        <v>4740.777</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="65">
+        <v>2040</v>
+      </c>
+      <c r="B31" s="66">
+        <v>3463.3919999999998</v>
+      </c>
+      <c r="C31" s="66">
+        <v>808.1339999999999</v>
+      </c>
+      <c r="D31" s="66">
+        <v>806.53199999999993</v>
+      </c>
+      <c r="E31" s="66">
+        <v>319.07</v>
+      </c>
+      <c r="F31" s="66">
+        <v>2849.933</v>
+      </c>
+      <c r="G31" s="66">
+        <v>5431.1540000000005</v>
+      </c>
+      <c r="H31" s="66">
+        <v>989.45</v>
+      </c>
+      <c r="I31" s="66">
+        <v>1379.308</v>
+      </c>
+      <c r="J31" s="66">
+        <v>594.79599999999994</v>
+      </c>
+      <c r="K31" s="66">
+        <v>416.92500000000001</v>
+      </c>
+      <c r="L31" s="66">
+        <v>2879.2640000000001</v>
+      </c>
+      <c r="M31" s="66">
+        <v>4740.777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="65">
+        <v>2045</v>
+      </c>
+      <c r="B32" s="66">
+        <v>3420.192</v>
+      </c>
+      <c r="C32" s="66">
+        <v>799.15699999999993</v>
+      </c>
+      <c r="D32" s="66">
+        <v>798.07299999999998</v>
+      </c>
+      <c r="E32" s="66">
+        <v>296.27999999999997</v>
+      </c>
+      <c r="F32" s="66">
+        <v>2748.9459999999999</v>
+      </c>
+      <c r="G32" s="66">
+        <v>5281.2690000000002</v>
+      </c>
+      <c r="H32" s="66">
+        <v>926.96800000000007</v>
+      </c>
+      <c r="I32" s="66">
+        <v>1171.7629999999999</v>
+      </c>
+      <c r="J32" s="66">
+        <v>548.85400000000004</v>
+      </c>
+      <c r="K32" s="66">
+        <v>380.26400000000001</v>
+      </c>
+      <c r="L32" s="66">
+        <v>2720.3009999999999</v>
+      </c>
+      <c r="M32" s="66">
+        <v>4740.777</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="65">
+        <v>2050</v>
+      </c>
+      <c r="B33" s="66">
+        <v>3346.3690000000001</v>
+      </c>
+      <c r="C33" s="66">
+        <v>783.01699999999994</v>
+      </c>
+      <c r="D33" s="66">
+        <v>782.45699999999999</v>
+      </c>
+      <c r="E33" s="66">
+        <v>273.49</v>
+      </c>
+      <c r="F33" s="66">
+        <v>2647.9589999999998</v>
+      </c>
+      <c r="G33" s="66">
+        <v>5084.7139999999999</v>
+      </c>
+      <c r="H33" s="66">
+        <v>859.68200000000002</v>
+      </c>
+      <c r="I33" s="66">
+        <v>995.44799999999998</v>
+      </c>
+      <c r="J33" s="66">
+        <v>540</v>
+      </c>
+      <c r="K33" s="66">
+        <v>351.149</v>
+      </c>
+      <c r="L33" s="66">
+        <v>2561.3389999999999</v>
+      </c>
+      <c r="M33" s="66">
+        <v>4740.777</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="53" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="53" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="53" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="53"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" customWidth="1"/>
+    <col min="3" max="3" width="28.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10668,8 +12073,8 @@
         <v>0</v>
       </c>
       <c r="D2" s="4">
-        <f>'EIA Costs'!F3*1000*About!$A$61</f>
-        <v>53313.02</v>
+        <f>'Texas Notes'!B16*1000*'Texas Notes'!A3</f>
+        <v>31020</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10684,8 +12089,8 @@
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <f>'EIA Costs'!F5*1000*About!$A$63</f>
-        <v>12836.772000000001</v>
+        <f>'Texas Notes'!C16*1000*'Texas Notes'!A3</f>
+        <v>10340</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10693,15 +12098,15 @@
         <v>16</v>
       </c>
       <c r="B4" s="4">
-        <f>('EIA Costs'!F8*1000)*(About!$A$63)</f>
-        <v>110749.159</v>
+        <f t="shared" ref="B4:B10" si="0">D4</f>
+        <v>36079.079999999994</v>
       </c>
       <c r="C4" s="23">
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <f>'EIA Costs'!F8*1000*About!$A$63</f>
-        <v>110749.159</v>
+        <f>'Texas Notes'!G16*1000*'Texas Notes'!A3</f>
+        <v>36079.079999999994</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10709,15 +12114,15 @@
         <v>17</v>
       </c>
       <c r="B5" s="4">
-        <f>('EIA Costs'!F11*1000)*(About!$A$63)</f>
-        <v>38062.309000000001</v>
+        <f t="shared" si="0"/>
+        <v>92344.3</v>
       </c>
       <c r="C5" s="23">
         <v>0</v>
       </c>
       <c r="D5" s="4">
-        <f>'EIA Costs'!F11*1000*About!$A$63</f>
-        <v>38062.309000000001</v>
+        <f>'Texas Notes'!F16*1000*About!$A$63</f>
+        <v>92344.3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10725,15 +12130,15 @@
         <v>113</v>
       </c>
       <c r="B6" s="4">
-        <f>('EIA Costs'!F12*1000)*(About!$A$63)</f>
-        <v>23972.946</v>
+        <f t="shared" si="0"/>
+        <v>39181.412199999999</v>
       </c>
       <c r="C6" s="23">
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <f>'EIA Costs'!F12*1000*About!$A$63</f>
-        <v>23972.946</v>
+        <f>'Texas Notes'!H16*1000*About!$A$63</f>
+        <v>39181.412199999999</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10741,15 +12146,15 @@
         <v>18</v>
       </c>
       <c r="B7" s="4">
-        <f>('EIA Costs'!F15*1000)*(About!$A$63)</f>
-        <v>13888.217000000001</v>
+        <f t="shared" si="0"/>
+        <v>12620.082899999999</v>
       </c>
       <c r="C7" s="23">
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <f>'EIA Costs'!F15*1000*About!$A$63</f>
-        <v>13888.217000000001</v>
+        <f>'Texas Notes'!K16*1000*About!$A$63</f>
+        <v>12620.082899999999</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10757,15 +12162,15 @@
         <v>19</v>
       </c>
       <c r="B8" s="4">
-        <f>('EIA Costs'!F14*1000)*(About!$A$63)</f>
-        <v>77742.929000000004</v>
+        <f t="shared" si="0"/>
+        <v>60343.8</v>
       </c>
       <c r="C8" s="23">
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <f>'EIA Costs'!F14*1000*About!$A$63</f>
-        <v>77742.929000000004</v>
+        <f>'Texas Notes'!L16*1000*About!$A$63</f>
+        <v>60343.8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10773,15 +12178,15 @@
         <v>20</v>
       </c>
       <c r="B9" s="4">
-        <f>('EIA Costs'!F9*1000)*(About!$A$63)</f>
-        <v>114461.217</v>
+        <f t="shared" si="0"/>
+        <v>154673.0453</v>
       </c>
       <c r="C9" s="23">
         <v>0</v>
       </c>
       <c r="D9" s="4">
-        <f>'EIA Costs'!F9*1000*About!$A$63</f>
-        <v>114461.217</v>
+        <f>'Texas Notes'!M16*1000*About!$A$63</f>
+        <v>154673.0453</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10789,15 +12194,15 @@
         <v>34</v>
       </c>
       <c r="B10" s="4">
-        <f>('EIA Costs'!F10*1000)*(About!$A$63)</f>
-        <v>103581.04700000001</v>
+        <f t="shared" si="0"/>
+        <v>154673.0453</v>
       </c>
       <c r="C10" s="23">
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <f>'EIA Costs'!F10*1000*About!$A$63</f>
-        <v>103581.04700000001</v>
+        <f>'Texas Notes'!M16*1000*About!$A$63</f>
+        <v>154673.0453</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10813,7 +12218,7 @@
       </c>
       <c r="D11" s="4">
         <f>D12</f>
-        <v>6372.6710000000003</v>
+        <v>10971.6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10828,8 +12233,8 @@
         <v>0</v>
       </c>
       <c r="D12" s="4">
-        <f>'EIA Costs'!F7*1000*About!$A$63</f>
-        <v>6372.6710000000003</v>
+        <f>'Texas Notes'!D16*1000*About!$A$63</f>
+        <v>10971.6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10845,8 +12250,8 @@
         <v>0</v>
       </c>
       <c r="D13" s="4">
-        <f>D2*'Coal Cost Multipliers'!$B$35</f>
-        <v>53313.02</v>
+        <f>'Texas Notes'!B16*1000*'Texas Notes'!A3</f>
+        <v>31020</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -10854,15 +12259,15 @@
         <v>112</v>
       </c>
       <c r="B14" s="4">
-        <f>('EIA Costs'!F13*1000)*(About!$A$63)</f>
-        <v>100152.42200000001</v>
+        <f>D14</f>
+        <v>84647.722599999994</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" s="4">
-        <f>'EIA Costs'!F13*1000*About!$A$63</f>
-        <v>100152.42200000001</v>
+        <f>'Texas Notes'!I16*1000*About!$A$63</f>
+        <v>84647.722599999994</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -10878,7 +12283,7 @@
       </c>
       <c r="D15" s="4">
         <f>D11</f>
-        <v>6372.6710000000003</v>
+        <v>10971.6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -10894,7 +12299,7 @@
       </c>
       <c r="D16" s="4">
         <f>D11</f>
-        <v>6372.6710000000003</v>
+        <v>10971.6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10902,15 +12307,15 @@
         <v>196</v>
       </c>
       <c r="B17" s="4">
-        <f>('EIA Costs'!F16*1000)*(About!$A$63)</f>
-        <v>18304.286</v>
+        <f>D17</f>
+        <v>154673.0453</v>
       </c>
       <c r="C17" s="23">
         <v>0</v>
       </c>
       <c r="D17" s="4">
-        <f>'EIA Costs'!F16*1000*About!$A$63</f>
-        <v>18304.286</v>
+        <f>D10</f>
+        <v>154673.0453</v>
       </c>
     </row>
   </sheetData>
@@ -10919,20 +12324,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" style="23" customWidth="1"/>
     <col min="2" max="4" width="24" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="23"/>
+    <col min="5" max="16384" width="9.1328125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10961,8 +12368,8 @@
         <v>0</v>
       </c>
       <c r="D2" s="16">
-        <f>'EIA Costs'!E3*About!$A$61</f>
-        <v>6.9512999999999998</v>
+        <f>'Texas Notes'!B6*'Texas Notes'!A3</f>
+        <v>4.6999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10977,8 +12384,8 @@
         <v>0</v>
       </c>
       <c r="D3" s="16">
-        <f>'EIA Costs'!E5*About!$A$63</f>
-        <v>2.3223220000000002</v>
+        <f>'Texas Notes'!C6*'Texas Notes'!A3</f>
+        <v>2.82</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10986,15 +12393,15 @@
         <v>16</v>
       </c>
       <c r="B4" s="16">
-        <f>'EIA Costs'!E8*About!$A$63</f>
-        <v>2.1577479999999998</v>
+        <f>D4</f>
+        <v>0</v>
       </c>
       <c r="C4" s="23">
         <v>0</v>
       </c>
       <c r="D4" s="16">
-        <f>'EIA Costs'!E8*About!$A$63</f>
-        <v>2.1577479999999998</v>
+        <f>'Texas Notes'!G6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11002,15 +12409,15 @@
         <v>17</v>
       </c>
       <c r="B5" s="16">
-        <f>'EIA Costs'!E11*About!$A$63</f>
-        <v>1.2708769999999998</v>
+        <f>D5</f>
+        <v>1.88</v>
       </c>
       <c r="C5" s="23">
         <v>0</v>
       </c>
       <c r="D5" s="16">
-        <f>'EIA Costs'!E11*About!$A$63</f>
-        <v>1.2708769999999998</v>
+        <f>'Texas Notes'!F6*'Texas Notes'!A3</f>
+        <v>1.88</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11025,7 +12432,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="4">
-        <f>'EIA Costs'!E12*About!$A$63</f>
+        <f>'Texas Notes'!H6*'Texas Notes'!A3</f>
         <v>0</v>
       </c>
     </row>
@@ -11041,7 +12448,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="4">
-        <f>'EIA Costs'!E15*About!$A$63</f>
+        <f>'Texas Notes'!K6*'Texas Notes'!A3</f>
         <v>0</v>
       </c>
     </row>
@@ -11050,15 +12457,15 @@
         <v>19</v>
       </c>
       <c r="B8" s="4">
-        <f>'EIA Costs'!E14*About!$A$63</f>
-        <v>0</v>
+        <f>D8</f>
+        <v>3.8539999999999996</v>
       </c>
       <c r="C8" s="23">
         <v>0</v>
       </c>
       <c r="D8" s="4">
-        <f>'EIA Costs'!E14*About!$A$63</f>
-        <v>0</v>
+        <f>'Texas Notes'!L6*'Texas Notes'!A3</f>
+        <v>3.8539999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11066,15 +12473,15 @@
         <v>20</v>
       </c>
       <c r="B9" s="16">
-        <f>'EIA Costs'!E9*About!$A$63</f>
-        <v>4.3977829999999996</v>
+        <f>D9</f>
+        <v>0</v>
       </c>
       <c r="C9" s="23">
         <v>0</v>
       </c>
       <c r="D9" s="16">
-        <f>'EIA Costs'!E9*About!$A$63</f>
-        <v>4.3977829999999996</v>
+        <f>'Texas Notes'!M6*'Texas Notes'!A3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11082,15 +12489,15 @@
         <v>34</v>
       </c>
       <c r="B10" s="4">
-        <f>'EIA Costs'!E10*About!$A$63</f>
-        <v>1.0605879999999999</v>
+        <f>D10</f>
+        <v>0</v>
       </c>
       <c r="C10" s="23">
         <v>0</v>
       </c>
       <c r="D10" s="4">
-        <f>'EIA Costs'!E10*About!$A$63</f>
-        <v>1.0605879999999999</v>
+        <f>'Texas Notes'!M6*'Texas Notes'!A3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11106,7 +12513,7 @@
       </c>
       <c r="D11" s="16">
         <f>D12</f>
-        <v>4.0960640000000001</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11121,8 +12528,8 @@
         <v>0</v>
       </c>
       <c r="D12" s="16">
-        <f>'EIA Costs'!E7*About!$A$63</f>
-        <v>4.0960640000000001</v>
+        <f>'Texas Notes'!D6*'Texas Notes'!A3</f>
+        <v>6.58</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11130,16 +12537,16 @@
         <v>126</v>
       </c>
       <c r="B13" s="16">
-        <f>B2*'Coal Cost Multipliers'!$B$34</f>
-        <v>7.4666880000000004</v>
+        <f>D13</f>
+        <v>4.6999999999999993</v>
       </c>
       <c r="C13" s="4">
         <f>C2*'Coal Cost Multipliers'!$B$34</f>
         <v>0</v>
       </c>
       <c r="D13" s="16">
-        <f>D2*'Coal Cost Multipliers'!$B$34</f>
-        <v>11.77632</v>
+        <f>'Texas Notes'!B6*'Texas Notes'!A3</f>
+        <v>4.6999999999999993</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11154,7 +12561,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="23">
-        <f>'EIA Costs'!E13*1000*About!$A$63</f>
+        <f>'Texas Notes'!I6*'Texas Notes'!A3</f>
         <v>0</v>
       </c>
     </row>
@@ -11171,7 +12578,7 @@
       </c>
       <c r="D15" s="16">
         <f>D11</f>
-        <v>4.0960640000000001</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -11187,7 +12594,7 @@
       </c>
       <c r="D16" s="16">
         <f>D11</f>
-        <v>4.0960640000000001</v>
+        <v>6.58</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -11195,15 +12602,15 @@
         <v>196</v>
       </c>
       <c r="B17" s="16">
-        <f>'EIA Costs'!E16*About!$A$63</f>
-        <v>5.6412310000000003</v>
+        <f>D17</f>
+        <v>4.6999999999999993</v>
       </c>
       <c r="C17" s="23">
         <v>0</v>
       </c>
       <c r="D17" s="16">
-        <f>'EIA Costs'!E16*About!$A$63</f>
-        <v>5.6412310000000003</v>
+        <f>D2</f>
+        <v>4.6999999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -11211,35 +12618,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.265625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" customWidth="1"/>
-    <col min="17" max="17" width="16.5703125" customWidth="1"/>
+    <col min="4" max="5" width="17.265625" customWidth="1"/>
+    <col min="6" max="6" width="23.1328125" customWidth="1"/>
+    <col min="7" max="7" width="17.265625" customWidth="1"/>
+    <col min="8" max="8" width="22.59765625" customWidth="1"/>
+    <col min="9" max="9" width="17.265625" customWidth="1"/>
+    <col min="10" max="10" width="22.3984375" customWidth="1"/>
+    <col min="11" max="11" width="20.86328125" customWidth="1"/>
+    <col min="12" max="12" width="28.1328125" customWidth="1"/>
+    <col min="13" max="13" width="19.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.265625" customWidth="1"/>
+    <col min="16" max="16" width="18.86328125" customWidth="1"/>
+    <col min="17" max="17" width="16.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30">
+    <row r="1" spans="1:17" ht="28.5">
       <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
@@ -11294,92 +12703,92 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B2" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4557579.6788879326</v>
+        <f>'Texas Notes'!B26*'Texas Notes'!$A$3*1000</f>
+        <v>3472531.0799999996</v>
       </c>
       <c r="C2" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>962058.30273462704</v>
+        <f>'Texas Notes'!C26*'Texas Notes'!$A$3*1000</f>
+        <v>845998.12</v>
       </c>
       <c r="D2" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5632940.678707079</v>
+        <f>'Texas Notes'!G26*'Texas Notes'!$A$3*1000</f>
+        <v>5786922</v>
       </c>
       <c r="E2" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2434233.6034520324</v>
+        <f>'Texas Notes'!F26*'Texas Notes'!$A$3*1000</f>
+        <v>3559793.1599999997</v>
       </c>
       <c r="F2" s="20">
-        <f>'Start Year Wind and Solar'!B3*10^3*About!$A$63</f>
-        <v>1344021</v>
+        <f>'Texas Notes'!H26*'Texas Notes'!A3*1000</f>
+        <v>1446154.28</v>
       </c>
       <c r="G2" s="20">
-        <f>'Start Year Wind and Solar'!B7*10^6/About!$C$25*About!$A$63</f>
-        <v>1166557.3923166473</v>
+        <f>'Texas Notes'!K26*'Texas Notes'!A3*1000</f>
+        <v>1033685.1</v>
       </c>
       <c r="H2" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>6190235.3107596356</v>
+        <f>'Texas Notes'!L26*'Texas Notes'!$A$3*1000</f>
+        <v>6813245.0200000005</v>
       </c>
       <c r="I2" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3680479.6131787207</v>
+        <f>'Texas Notes'!M26*'Texas Notes'!$A$3*1000</f>
+        <v>5181560.12</v>
       </c>
       <c r="J2" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2270817.9963020692</v>
+        <f>I2</f>
+        <v>5181560.12</v>
       </c>
       <c r="K2" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>636580.52455604961</v>
+        <f>L2</f>
+        <v>843840.82</v>
       </c>
       <c r="L2" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>636580.52455604961</v>
+        <f>'Texas Notes'!D26*'Texas Notes'!$A$3*1000</f>
+        <v>843840.82</v>
       </c>
       <c r="M2" s="4">
         <f>B2*'Coal Cost Multipliers'!$B$33</f>
-        <v>5281971.7859389298</v>
+        <v>4024463.0884503839</v>
       </c>
       <c r="N2" s="20">
-        <f>SUMPRODUCT('Cost Improvement and Off Wnd'!B45:B59,'Cost Improvement and Off Wnd'!C27:C41)/SUM('Cost Improvement and Off Wnd'!B45:B59)*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("offshore wind",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH(A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*10^3*About!$A$63</f>
-        <v>3030248.6826914768</v>
+        <f>'Texas Notes'!I26*1000*'Texas Notes'!A3</f>
+        <v>2657064.1599999997</v>
       </c>
       <c r="O2" s="4">
         <f>K2</f>
-        <v>636580.52455604961</v>
+        <v>843840.82</v>
       </c>
       <c r="P2" s="4">
         <f>K2</f>
-        <v>636580.52455604961</v>
+        <v>843840.82</v>
       </c>
       <c r="Q2" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A2,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1396322.3093857865</v>
+        <f>L2*1.4</f>
+        <v>1181377.1479999998</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B3" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4528287.3577758651</v>
+        <f>AVERAGE(B2,B4)</f>
+        <v>3456692.08</v>
       </c>
       <c r="C3" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>955174.60546925361</v>
+        <f>AVERAGE(C2,C4)</f>
+        <v>839944.99</v>
       </c>
       <c r="D3" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5593215.3574141553</v>
+        <f>AVERAGE(D2,D4)</f>
+        <v>5746110.4900000002</v>
       </c>
       <c r="E3" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2397171.2069040639</v>
+        <f>AVERAGE(E2,E4)</f>
+        <v>3513562.0799999996</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -11388,64 +12797,64 @@
         <v>0</v>
       </c>
       <c r="H3" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5922952.6215192685</v>
+        <f>AVERAGE(H2,H4)</f>
+        <v>6519061.6799999997</v>
       </c>
       <c r="I3" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3675567.2263574409</v>
+        <f>AVERAGE(I2,I4)</f>
+        <v>5121124.2299999995</v>
       </c>
       <c r="J3" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2134995.9926041379</v>
+        <f t="shared" ref="J3:J33" si="0">I3</f>
+        <v>5121124.2299999995</v>
       </c>
       <c r="K3" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>635581.04911209899</v>
+        <f t="shared" ref="K3:K33" si="1">L3</f>
+        <v>846195.99</v>
       </c>
       <c r="L3" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>635581.04911209899</v>
+        <f>AVERAGE(L2,L4)</f>
+        <v>846195.99</v>
       </c>
       <c r="M3" s="4">
         <f>B3*'Coal Cost Multipliers'!$B$33</f>
-        <v>5248023.67651249</v>
+        <v>4006106.6016718796</v>
       </c>
       <c r="N3" s="4">
         <v>0</v>
       </c>
       <c r="O3" s="4">
-        <f t="shared" ref="O3:O34" si="0">K3</f>
-        <v>635581.04911209899</v>
+        <f t="shared" ref="O3:O33" si="2">K3</f>
+        <v>846195.99</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P34" si="1">K3</f>
-        <v>635581.04911209899</v>
+        <f t="shared" ref="P3:P33" si="3">K3</f>
+        <v>846195.99</v>
       </c>
       <c r="Q3" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A3,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1394458.6187715731</v>
+        <f t="shared" ref="Q3:Q33" si="4">L3*1.4</f>
+        <v>1184674.3859999999</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B4" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4498995.0366637995</v>
+        <f>'Texas Notes'!B27*'Texas Notes'!$A$3*1000</f>
+        <v>3440853.08</v>
       </c>
       <c r="C4" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>948290.90820388054</v>
+        <f>'Texas Notes'!C27*'Texas Notes'!$A$3*1000</f>
+        <v>833891.85999999987</v>
       </c>
       <c r="D4" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5553490.0361212343</v>
+        <f>'Texas Notes'!G27*'Texas Notes'!$A$3*1000</f>
+        <v>5705298.9799999995</v>
       </c>
       <c r="E4" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2360108.8103560968</v>
+        <f>'Texas Notes'!F27*'Texas Notes'!$A$3*1000</f>
+        <v>3467330.9999999995</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -11454,64 +12863,64 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5655669.9322789013</v>
+        <f>'Texas Notes'!L27*'Texas Notes'!$A$3*1000</f>
+        <v>6224878.3399999989</v>
       </c>
       <c r="I4" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3669630.1536549246</v>
+        <f>'Texas Notes'!M27*'Texas Notes'!$A$3*1000</f>
+        <v>5060688.3399999989</v>
       </c>
       <c r="J4" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1999173.9889062068</v>
+        <f t="shared" si="0"/>
+        <v>5060688.3399999989</v>
       </c>
       <c r="K4" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640133.73800439923</v>
+        <f t="shared" si="1"/>
+        <v>848551.15999999992</v>
       </c>
       <c r="L4" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640133.73800439923</v>
+        <f>'Texas Notes'!D27*'Texas Notes'!$A$3*1000</f>
+        <v>848551.15999999992</v>
       </c>
       <c r="M4" s="4">
         <f>B4*'Coal Cost Multipliers'!$B$33</f>
-        <v>5214075.5670860531</v>
+        <v>3987750.1148933754</v>
       </c>
       <c r="N4" s="4">
         <v>0</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" si="0"/>
-        <v>640133.73800439923</v>
+        <f t="shared" si="2"/>
+        <v>848551.15999999992</v>
       </c>
       <c r="P4" s="4">
-        <f t="shared" si="1"/>
-        <v>640133.73800439923</v>
+        <f t="shared" si="3"/>
+        <v>848551.15999999992</v>
       </c>
       <c r="Q4" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A4,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1392206.1767155745</v>
+        <f t="shared" si="4"/>
+        <v>1187971.6239999998</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B5" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4469702.7155517321</v>
+        <f>B4*0.8+B9*0.2</f>
+        <v>3428435.304</v>
       </c>
       <c r="C5" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>941407.21093850711</v>
+        <f>C4*0.8+C9*0.2</f>
+        <v>827101.67599999998</v>
       </c>
       <c r="D5" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5513764.7148283115</v>
+        <f t="shared" ref="D5:E5" si="5">D4*0.8+D9*0.2</f>
+        <v>5670124.5559999999</v>
       </c>
       <c r="E5" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2323046.4138081288</v>
+        <f t="shared" si="5"/>
+        <v>3421099.92</v>
       </c>
       <c r="F5" s="4">
         <v>0</v>
@@ -11520,64 +12929,64 @@
         <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5388387.243038536</v>
+        <f t="shared" ref="H5:I5" si="6">H4*0.8+H9*0.2</f>
+        <v>5906516.5079999994</v>
       </c>
       <c r="I5" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3710615.5803474663</v>
+        <f t="shared" si="6"/>
+        <v>5000252.5439999998</v>
       </c>
       <c r="J5" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1863351.9852082757</v>
+        <f t="shared" si="0"/>
+        <v>5000252.5439999998</v>
       </c>
       <c r="K5" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>632438.28065955907</v>
+        <f t="shared" si="1"/>
+        <v>839560.99999999988</v>
       </c>
       <c r="L5" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>632438.28065955907</v>
+        <f t="shared" ref="L5" si="7">L4*0.8+L9*0.2</f>
+        <v>839560.99999999988</v>
       </c>
       <c r="M5" s="4">
         <f>B5*'Coal Cost Multipliers'!$B$33</f>
-        <v>5180127.4576596133</v>
+        <v>3973358.629259028</v>
       </c>
       <c r="N5" s="4">
         <v>0</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" si="0"/>
-        <v>632438.28065955907</v>
+        <f t="shared" si="2"/>
+        <v>839560.99999999988</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="1"/>
-        <v>632438.28065955907</v>
+        <f t="shared" si="3"/>
+        <v>839560.99999999988</v>
       </c>
       <c r="Q5" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A5,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1407755.4723686662</v>
+        <f t="shared" si="4"/>
+        <v>1175385.3999999997</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B6" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4440410.3944396656</v>
+        <f>B4*0.6+B9*0.4</f>
+        <v>3416017.5279999999</v>
       </c>
       <c r="C6" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>934523.51367313403</v>
+        <f>C4*0.6+C9*0.4</f>
+        <v>820311.49199999997</v>
       </c>
       <c r="D6" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5474039.3935353896</v>
+        <f t="shared" ref="D6:E6" si="8">D4*0.6+D9*0.4</f>
+        <v>5634950.1320000002</v>
       </c>
       <c r="E6" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2285984.0172601612</v>
+        <f t="shared" si="8"/>
+        <v>3374868.84</v>
       </c>
       <c r="F6" s="4">
         <v>0</v>
@@ -11586,64 +12995,64 @@
         <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5072088.2342516193</v>
+        <f t="shared" ref="H6:I6" si="9">H4*0.6+H9*0.4</f>
+        <v>5588154.675999999</v>
       </c>
       <c r="I6" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3615350.5806739321</v>
+        <f t="shared" si="9"/>
+        <v>4939816.7479999997</v>
       </c>
       <c r="J6" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1727529.9815103451</v>
+        <f t="shared" si="0"/>
+        <v>4939816.7479999997</v>
       </c>
       <c r="K6" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>627720.5347827893</v>
+        <f t="shared" si="1"/>
+        <v>830570.83999999985</v>
       </c>
       <c r="L6" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>627720.5347827893</v>
+        <f t="shared" ref="L6" si="10">L4*0.6+L9*0.4</f>
+        <v>830570.83999999985</v>
       </c>
       <c r="M6" s="4">
         <f>B6*'Coal Cost Multipliers'!$B$33</f>
-        <v>5146179.3482331755</v>
+        <v>3958967.1436246801</v>
       </c>
       <c r="N6" s="4">
         <v>0</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" si="0"/>
-        <v>627720.5347827893</v>
+        <f t="shared" si="2"/>
+        <v>830570.83999999985</v>
       </c>
       <c r="P6" s="4">
-        <f t="shared" si="1"/>
-        <v>627720.5347827893</v>
+        <f t="shared" si="3"/>
+        <v>830570.83999999985</v>
       </c>
       <c r="Q6" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A6,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1371613.268545154</v>
+        <f t="shared" si="4"/>
+        <v>1162799.1759999997</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B7" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4411118.0733275991</v>
+        <f>B4*0.4+B9*0.6</f>
+        <v>3403599.7519999999</v>
       </c>
       <c r="C7" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>920364.18721302296</v>
+        <f>C4*0.4+C9*0.6</f>
+        <v>813521.30799999996</v>
       </c>
       <c r="D7" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5434314.0722424677</v>
+        <f t="shared" ref="D7:E7" si="11">D4*0.4+D9*0.6</f>
+        <v>5599775.7079999996</v>
       </c>
       <c r="E7" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2248921.6207121932</v>
+        <f t="shared" si="11"/>
+        <v>3328637.76</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -11652,64 +13061,64 @@
         <v>0</v>
       </c>
       <c r="H7" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>4800966.0721755233</v>
+        <f t="shared" ref="H7:I7" si="12">H4*0.4+H9*0.6</f>
+        <v>5269792.8439999996</v>
       </c>
       <c r="I7" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3597882.1504836255</v>
+        <f t="shared" si="12"/>
+        <v>4879380.9519999996</v>
       </c>
       <c r="J7" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1591707.9778124143</v>
+        <f t="shared" si="0"/>
+        <v>4879380.9519999996</v>
       </c>
       <c r="K7" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>615347.58558829164</v>
+        <f t="shared" si="1"/>
+        <v>821580.67999999982</v>
       </c>
       <c r="L7" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>615347.58558829164</v>
+        <f t="shared" ref="L7" si="13">L4*0.4+L9*0.6</f>
+        <v>821580.67999999982</v>
       </c>
       <c r="M7" s="4">
         <f>B7*'Coal Cost Multipliers'!$B$33</f>
-        <v>5112231.2388067376</v>
+        <v>3944575.6579903327</v>
       </c>
       <c r="N7" s="4">
         <v>0</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="0"/>
-        <v>615347.58558829164</v>
+        <f t="shared" si="2"/>
+        <v>821580.67999999982</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="1"/>
-        <v>615347.58558829164</v>
+        <f t="shared" si="3"/>
+        <v>821580.67999999982</v>
       </c>
       <c r="Q7" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A7,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1364985.9913019019</v>
+        <f t="shared" si="4"/>
+        <v>1150212.9519999996</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B8" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4383925.9595025899</v>
+        <f>B4*0.2+B9*0.8</f>
+        <v>3391181.9759999998</v>
       </c>
       <c r="C8" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>913239.77853647328</v>
+        <f>C4*0.2+C9*0.8</f>
+        <v>806731.12400000007</v>
       </c>
       <c r="D8" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5397190.1458511474</v>
+        <f t="shared" ref="D8:E8" si="14">D4*0.2+D9*0.8</f>
+        <v>5564601.2840000009</v>
       </c>
       <c r="E8" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2211859.2241642252</v>
+        <f t="shared" si="14"/>
+        <v>3282406.6799999997</v>
       </c>
       <c r="F8" s="4">
         <v>0</v>
@@ -11718,64 +13127,64 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>4505191.5170499301</v>
+        <f t="shared" ref="H8:I8" si="15">H4*0.2+H9*0.8</f>
+        <v>4951431.0120000001</v>
       </c>
       <c r="I8" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3582018.7353398106</v>
+        <f t="shared" si="15"/>
+        <v>4818945.1560000004</v>
       </c>
       <c r="J8" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1455885.9741144832</v>
+        <f t="shared" si="0"/>
+        <v>4818945.1560000004</v>
       </c>
       <c r="K8" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>609623.64132841176</v>
+        <f t="shared" si="1"/>
+        <v>812590.51999999979</v>
       </c>
       <c r="L8" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>609623.64132841176</v>
+        <f t="shared" ref="L8" si="16">L4*0.2+L9*0.8</f>
+        <v>812590.51999999979</v>
       </c>
       <c r="M8" s="4">
         <f>B8*'Coal Cost Multipliers'!$B$33</f>
-        <v>5080717.1484027747</v>
+        <v>3930184.1723559853</v>
       </c>
       <c r="N8" s="4">
         <v>0</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" si="0"/>
-        <v>609623.64132841176</v>
+        <f t="shared" si="2"/>
+        <v>812590.51999999979</v>
       </c>
       <c r="P8" s="4">
-        <f t="shared" si="1"/>
-        <v>609623.64132841176</v>
+        <f t="shared" si="3"/>
+        <v>812590.51999999979</v>
       </c>
       <c r="Q8" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A8,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1358967.6342407612</v>
+        <f t="shared" si="4"/>
+        <v>1137626.7279999997</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B9" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4374794.2380069029</v>
+        <f>'Texas Notes'!B28*'Texas Notes'!$A$3*1000</f>
+        <v>3378764.1999999997</v>
       </c>
       <c r="C9" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>909682.87820068328</v>
+        <f>'Texas Notes'!C28*'Texas Notes'!$A$3*1000</f>
+        <v>799940.94000000006</v>
       </c>
       <c r="D9" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5382297.3522425154</v>
+        <f>'Texas Notes'!G28*'Texas Notes'!$A$3*1000</f>
+        <v>5529426.8600000003</v>
       </c>
       <c r="E9" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2174796.8276162585</v>
+        <f>'Texas Notes'!F28*'Texas Notes'!$A$3*1000</f>
+        <v>3236175.5999999996</v>
       </c>
       <c r="F9" s="4">
         <v>0</v>
@@ -11784,64 +13193,64 @@
         <v>0</v>
       </c>
       <c r="H9" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>4209416.9619243396</v>
+        <f>'Texas Notes'!L28*'Texas Notes'!$A$3*1000</f>
+        <v>4633069.18</v>
       </c>
       <c r="I9" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3580152.8276873408</v>
+        <f>'Texas Notes'!M28*'Texas Notes'!$A$3*1000</f>
+        <v>4758509.3600000003</v>
       </c>
       <c r="J9" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1320063.9704165517</v>
+        <f t="shared" si="0"/>
+        <v>4758509.3600000003</v>
       </c>
       <c r="K9" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>606223.36556319764</v>
+        <f t="shared" si="1"/>
+        <v>803600.35999999975</v>
       </c>
       <c r="L9" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>606223.36556319764</v>
+        <f>'Texas Notes'!D28*'Texas Notes'!$A$3*1000</f>
+        <v>803600.35999999975</v>
       </c>
       <c r="M9" s="4">
         <f>B9*'Coal Cost Multipliers'!$B$33</f>
-        <v>5070134.0102690179</v>
+        <v>3915792.6867216378</v>
       </c>
       <c r="N9" s="4">
         <v>0</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="0"/>
-        <v>606223.36556319764</v>
+        <f t="shared" si="2"/>
+        <v>803600.35999999975</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="1"/>
-        <v>606223.36556319764</v>
+        <f t="shared" si="3"/>
+        <v>803600.35999999975</v>
       </c>
       <c r="Q9" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A9,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1358259.7350655918</v>
+        <f t="shared" si="4"/>
+        <v>1125040.5039999995</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B10" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4363916.1409849636</v>
+        <f>B9*0.8+B14*0.2</f>
+        <v>3371926.264</v>
       </c>
       <c r="C10" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>906052.87835925608</v>
+        <f>C9*0.8+C14*0.2</f>
+        <v>796645.11200000008</v>
       </c>
       <c r="D10" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5365239.2925965758</v>
+        <f t="shared" ref="D10" si="17">D9*0.8+D14*0.2</f>
+        <v>5503388.296000001</v>
       </c>
       <c r="E10" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2137734.4310682896</v>
+        <f t="shared" ref="E10" si="18">E9*0.8+E14*0.2</f>
+        <v>3189944.52</v>
       </c>
       <c r="F10" s="4">
         <v>0</v>
@@ -11850,64 +13259,64 @@
         <v>0</v>
       </c>
       <c r="H10" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3913642.4067987497</v>
+        <f t="shared" ref="H10" si="19">H9*0.8+H14*0.2</f>
+        <v>4307526.6880000001</v>
       </c>
       <c r="I10" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3576955.0329132001</v>
+        <f t="shared" ref="I10" si="20">I9*0.8+I14*0.2</f>
+        <v>4698073.5640000002</v>
       </c>
       <c r="J10" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1184241.9667186209</v>
+        <f t="shared" si="0"/>
+        <v>4698073.5640000002</v>
       </c>
       <c r="K10" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>602857.9705520398</v>
+        <f t="shared" si="1"/>
+        <v>799539.18399999978</v>
       </c>
       <c r="L10" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>602857.9705520398</v>
+        <f t="shared" ref="L10" si="21">L9*0.8+L14*0.2</f>
+        <v>799539.18399999978</v>
       </c>
       <c r="M10" s="4">
         <f>B10*'Coal Cost Multipliers'!$B$33</f>
-        <v>5057526.9237005152</v>
+        <v>3907867.9135808931</v>
       </c>
       <c r="N10" s="4">
         <v>0</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" si="0"/>
-        <v>602857.9705520398</v>
+        <f t="shared" si="2"/>
+        <v>799539.18399999978</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="1"/>
-        <v>602857.9705520398</v>
+        <f t="shared" si="3"/>
+        <v>799539.18399999978</v>
       </c>
       <c r="Q10" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A10,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1357046.5366096133</v>
+        <f t="shared" si="4"/>
+        <v>1119354.8575999995</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B11" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4350740.1611245479</v>
+        <f>B9*0.6+B14*0.4</f>
+        <v>3365088.3279999997</v>
       </c>
       <c r="C11" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>902226.95651656261</v>
+        <f>C9*0.6+C14*0.4</f>
+        <v>793349.28399999999</v>
       </c>
       <c r="D11" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5345342.686611332</v>
+        <f t="shared" ref="D11:E11" si="22">D9*0.6+D14*0.4</f>
+        <v>5477349.7319999998</v>
       </c>
       <c r="E11" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2100672.0345203225</v>
+        <f t="shared" si="22"/>
+        <v>3143713.4399999995</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
@@ -11916,64 +13325,64 @@
         <v>0</v>
       </c>
       <c r="H11" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3617867.851673157</v>
+        <f t="shared" ref="H11:I11" si="23">H9*0.6+H14*0.4</f>
+        <v>3981984.1959999995</v>
       </c>
       <c r="I11" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3571990.797706374</v>
+        <f t="shared" si="23"/>
+        <v>4637637.7679999992</v>
       </c>
       <c r="J11" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1048419.9630206898</v>
+        <f t="shared" si="0"/>
+        <v>4637637.7679999992</v>
       </c>
       <c r="K11" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>599443.93548026006</v>
+        <f t="shared" si="1"/>
+        <v>795478.0079999998</v>
       </c>
       <c r="L11" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>599443.93548026006</v>
+        <f t="shared" ref="L11" si="24">L9*0.6+L14*0.4</f>
+        <v>795478.0079999998</v>
       </c>
       <c r="M11" s="4">
         <f>B11*'Coal Cost Multipliers'!$B$33</f>
-        <v>5042256.7235552054</v>
+        <v>3899943.1404401478</v>
       </c>
       <c r="N11" s="4">
         <v>0</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="0"/>
-        <v>599443.93548026006</v>
+        <f t="shared" si="2"/>
+        <v>795478.0079999998</v>
       </c>
       <c r="P11" s="4">
-        <f t="shared" si="1"/>
-        <v>599443.93548026006</v>
+        <f t="shared" si="3"/>
+        <v>795478.0079999998</v>
       </c>
       <c r="Q11" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A11,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1355163.17544562</v>
+        <f t="shared" si="4"/>
+        <v>1113669.2111999996</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B12" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4333046.343578591</v>
+        <f>B9*0.4+B14*0.6</f>
+        <v>3358250.3919999995</v>
       </c>
       <c r="C12" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>898953.47467168875</v>
+        <f>C9*0.4+C14*0.6</f>
+        <v>790053.45600000001</v>
       </c>
       <c r="D12" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5319888.5323113659</v>
+        <f t="shared" ref="D12:E12" si="25">D9*0.4+D14*0.6</f>
+        <v>5451311.1679999996</v>
       </c>
       <c r="E12" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2063609.6379723544</v>
+        <f t="shared" si="25"/>
+        <v>3097482.36</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
@@ -11982,64 +13391,64 @@
         <v>0</v>
       </c>
       <c r="H12" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3322093.2965475647</v>
+        <f t="shared" ref="H12:I12" si="26">H9*0.4+H14*0.6</f>
+        <v>3656441.7039999999</v>
       </c>
       <c r="I12" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3563521.302166706</v>
+        <f t="shared" si="26"/>
+        <v>4577201.9719999991</v>
       </c>
       <c r="J12" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>912597.95932275837</v>
+        <f t="shared" si="0"/>
+        <v>4577201.9719999991</v>
       </c>
       <c r="K12" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>596840.94162942353</v>
+        <f t="shared" si="1"/>
+        <v>791416.83199999982</v>
       </c>
       <c r="L12" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>596840.94162942353</v>
+        <f t="shared" ref="L12" si="27">L9*0.4+L14*0.6</f>
+        <v>791416.83199999982</v>
       </c>
       <c r="M12" s="4">
         <f>B12*'Coal Cost Multipliers'!$B$33</f>
-        <v>5021750.6103003519</v>
+        <v>3892018.3672994026</v>
       </c>
       <c r="N12" s="4">
         <v>0</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="0"/>
-        <v>596840.94162942353</v>
+        <f t="shared" si="2"/>
+        <v>791416.83199999982</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="1"/>
-        <v>596840.94162942353</v>
+        <f t="shared" si="3"/>
+        <v>791416.83199999982</v>
       </c>
       <c r="Q12" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A12,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1351949.9677079825</v>
+        <f t="shared" si="4"/>
+        <v>1107983.5647999996</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B13" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4306382.493295013</v>
+        <f>B9*0.2+B14*0.8</f>
+        <v>3351412.4559999998</v>
       </c>
       <c r="C13" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>893843.22195435094</v>
+        <f>C9*0.2+C14*0.8</f>
+        <v>786757.62800000003</v>
       </c>
       <c r="D13" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5283424.9334751861</v>
+        <f t="shared" ref="D13" si="28">D9*0.2+D14*0.8</f>
+        <v>5425272.6040000003</v>
       </c>
       <c r="E13" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2026547.2414243866</v>
+        <f t="shared" ref="E13" si="29">E9*0.2+E14*0.8</f>
+        <v>3051251.28</v>
       </c>
       <c r="F13" s="4">
         <v>0</v>
@@ -12048,64 +13457,64 @@
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3026318.7414219733</v>
+        <f t="shared" ref="H13" si="30">H9*0.2+H14*0.8</f>
+        <v>3330899.2119999998</v>
       </c>
       <c r="I13" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3548052.8540223199</v>
+        <f t="shared" ref="I13" si="31">I9*0.2+I14*0.8</f>
+        <v>4516766.176</v>
       </c>
       <c r="J13" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>776775.95562482707</v>
+        <f t="shared" si="0"/>
+        <v>4516766.176</v>
       </c>
       <c r="K13" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>593026.04321209737</v>
+        <f t="shared" si="1"/>
+        <v>787355.65599999984</v>
       </c>
       <c r="L13" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>593026.04321209737</v>
+        <f t="shared" ref="L13" si="32">L9*0.2+L14*0.8</f>
+        <v>787355.65599999984</v>
       </c>
       <c r="M13" s="4">
         <f>B13*'Coal Cost Multipliers'!$B$33</f>
-        <v>4990848.7468497222</v>
+        <v>3884093.5941586578</v>
       </c>
       <c r="N13" s="4">
         <v>0</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="0"/>
-        <v>593026.04321209737</v>
+        <f t="shared" si="2"/>
+        <v>787355.65599999984</v>
       </c>
       <c r="P13" s="4">
-        <f t="shared" si="1"/>
-        <v>593026.04321209737</v>
+        <f t="shared" si="3"/>
+        <v>787355.65599999984</v>
       </c>
       <c r="Q13" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A13,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1346081.4555830292</v>
+        <f t="shared" si="4"/>
+        <v>1102297.9183999996</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B14" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4286729.8869220419</v>
+        <f>'Texas Notes'!B29*'Texas Notes'!$A$3*1000</f>
+        <v>3344574.5199999996</v>
       </c>
       <c r="C14" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>890943.31681565102</v>
+        <f>'Texas Notes'!C29*'Texas Notes'!$A$3*1000</f>
+        <v>783461.79999999993</v>
       </c>
       <c r="D14" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5255568.7933839113</v>
+        <f>'Texas Notes'!G29*'Texas Notes'!$A$3*1000</f>
+        <v>5399234.0399999991</v>
       </c>
       <c r="E14" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1989484.8448764191</v>
+        <f>'Texas Notes'!F29*'Texas Notes'!$A$3*1000</f>
+        <v>3005020.1999999997</v>
       </c>
       <c r="F14" s="4">
         <v>0</v>
@@ -12114,64 +13523,64 @@
         <v>0</v>
       </c>
       <c r="H14" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2730544.1862963829</v>
+        <f>'Texas Notes'!L29*'Texas Notes'!$A$3*1000</f>
+        <v>3005356.7199999997</v>
       </c>
       <c r="I14" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3538051.4974978026</v>
+        <f>'Texas Notes'!M29*'Texas Notes'!$A$3*1000</f>
+        <v>4456330.379999999</v>
       </c>
       <c r="J14" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K14" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>590905.00508873118</v>
+        <f t="shared" si="1"/>
+        <v>783294.47999999986</v>
       </c>
       <c r="L14" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>590905.00508873118</v>
+        <f>'Texas Notes'!D29*'Texas Notes'!$A$3*1000</f>
+        <v>783294.47999999986</v>
       </c>
       <c r="M14" s="4">
         <f>B14*'Coal Cost Multipliers'!$B$33</f>
-        <v>4968072.5104049603</v>
+        <v>3876168.8210179126</v>
       </c>
       <c r="N14" s="4">
         <v>0</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="0"/>
-        <v>590905.00508873118</v>
+        <f t="shared" si="2"/>
+        <v>783294.47999999986</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="1"/>
-        <v>590905.00508873118</v>
+        <f t="shared" si="3"/>
+        <v>783294.47999999986</v>
       </c>
       <c r="Q14" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A14,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1342287.0812875433</v>
+        <f t="shared" si="4"/>
+        <v>1096612.2719999996</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B15" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4267192.1028447589</v>
+        <f>B14*0.8+B19*0.2</f>
+        <v>3335840.4159999997</v>
       </c>
       <c r="C15" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>888253.39499304548</v>
+        <f>C14*0.8+C19*0.2</f>
+        <v>780848.03599999996</v>
       </c>
       <c r="D15" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5227852.1119602192</v>
+        <f t="shared" ref="D15" si="33">D14*0.8+D19*0.2</f>
+        <v>5370095.1679999996</v>
       </c>
       <c r="E15" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1952422.4483284515</v>
+        <f t="shared" ref="E15" si="34">E14*0.8+E19*0.2</f>
+        <v>2958789.1199999996</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
@@ -12180,64 +13589,64 @@
         <v>0</v>
       </c>
       <c r="H15" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2703391.9892602018</v>
+        <f t="shared" ref="H15" si="35">H14*0.8+H19*0.2</f>
+        <v>2975471.8639999996</v>
       </c>
       <c r="I15" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3528140.5335337119</v>
+        <f t="shared" ref="I15" si="36">I14*0.8+I19*0.2</f>
+        <v>4456330.379999999</v>
       </c>
       <c r="J15" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K15" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>588978.90673516935</v>
+        <f t="shared" si="1"/>
+        <v>780424.28399999999</v>
       </c>
       <c r="L15" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>588978.90673516935</v>
+        <f t="shared" ref="L15" si="37">L14*0.8+L19*0.2</f>
+        <v>780424.28399999999</v>
       </c>
       <c r="M15" s="4">
         <f>B15*'Coal Cost Multipliers'!$B$33</f>
-        <v>4945429.3463733969</v>
+        <v>3866046.4986113166</v>
       </c>
       <c r="N15" s="4">
         <v>0</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" si="0"/>
-        <v>588978.90673516935</v>
+        <f t="shared" si="2"/>
+        <v>780424.28399999999</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="1"/>
-        <v>588978.90673516935</v>
+        <f t="shared" si="3"/>
+        <v>780424.28399999999</v>
       </c>
       <c r="Q15" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A15,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1338527.000660816</v>
+        <f t="shared" si="4"/>
+        <v>1092593.9975999999</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B16" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4245321.0464447401</v>
+        <f>B14*0.6+B19*0.4</f>
+        <v>3327106.3119999995</v>
       </c>
       <c r="C16" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>884611.0362725812</v>
+        <f>C14*0.6+C19*0.4</f>
+        <v>778234.27199999988</v>
       </c>
       <c r="D16" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5197278.1237860257</v>
+        <f t="shared" ref="D16:E16" si="38">D14*0.6+D19*0.4</f>
+        <v>5340956.2959999982</v>
       </c>
       <c r="E16" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1915360.0517804835</v>
+        <f t="shared" si="38"/>
+        <v>2912558.04</v>
       </c>
       <c r="F16" s="4">
         <v>0</v>
@@ -12246,64 +13655,64 @@
         <v>0</v>
       </c>
       <c r="H16" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2676239.7922240188</v>
+        <f t="shared" ref="H16:I16" si="39">H14*0.6+H19*0.4</f>
+        <v>2945587.0079999999</v>
       </c>
       <c r="I16" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3516399.9480102807</v>
+        <f t="shared" si="39"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="J16" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K16" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>586281.43813565525</v>
+        <f t="shared" si="1"/>
+        <v>777554.08799999999</v>
       </c>
       <c r="L16" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>586281.43813565525</v>
+        <f t="shared" ref="L16" si="40">L14*0.6+L19*0.4</f>
+        <v>777554.08799999999</v>
       </c>
       <c r="M16" s="4">
         <f>B16*'Coal Cost Multipliers'!$B$33</f>
-        <v>4920082.05439544</v>
+        <v>3855924.1762047196</v>
       </c>
       <c r="N16" s="4">
         <v>0</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="0"/>
-        <v>586281.43813565525</v>
+        <f t="shared" si="2"/>
+        <v>777554.08799999999</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="1"/>
-        <v>586281.43813565525</v>
+        <f t="shared" si="3"/>
+        <v>777554.08799999999</v>
       </c>
       <c r="Q16" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A16,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1334072.7872933741</v>
+        <f t="shared" si="4"/>
+        <v>1088575.7231999999</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B17" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4225231.4989490611</v>
+        <f>B14*0.4+B19*0.6</f>
+        <v>3318372.2079999996</v>
       </c>
       <c r="C17" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>881747.42832570034</v>
+        <f>C14*0.4+C19*0.6</f>
+        <v>775620.50799999991</v>
       </c>
       <c r="D17" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5168887.3612113139</v>
+        <f t="shared" ref="D17:E17" si="41">D14*0.4+D19*0.6</f>
+        <v>5311817.4239999987</v>
       </c>
       <c r="E17" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1878297.6552325157</v>
+        <f t="shared" si="41"/>
+        <v>2866326.96</v>
       </c>
       <c r="F17" s="4">
         <v>0</v>
@@ -12312,64 +13721,64 @@
         <v>0</v>
       </c>
       <c r="H17" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2649087.5951878377</v>
+        <f t="shared" ref="H17:I17" si="42">H14*0.4+H19*0.6</f>
+        <v>2915702.1519999998</v>
       </c>
       <c r="I17" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3506054.8292013253</v>
+        <f t="shared" si="42"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="J17" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K17" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>584222.64240803325</v>
+        <f t="shared" si="1"/>
+        <v>774683.89199999999</v>
       </c>
       <c r="L17" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>584222.64240803325</v>
+        <f t="shared" ref="L17" si="43">L14*0.4+L19*0.6</f>
+        <v>774683.89199999999</v>
       </c>
       <c r="M17" s="4">
         <f>B17*'Coal Cost Multipliers'!$B$33</f>
-        <v>4896799.4284095466</v>
+        <v>3845801.8537981231</v>
       </c>
       <c r="N17" s="4">
         <v>0</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="0"/>
-        <v>584222.64240803325</v>
+        <f t="shared" si="2"/>
+        <v>774683.89199999999</v>
       </c>
       <c r="P17" s="4">
-        <f t="shared" si="1"/>
-        <v>584222.64240803325</v>
+        <f t="shared" si="3"/>
+        <v>774683.89199999999</v>
       </c>
       <c r="Q17" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A17,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1330147.9944119062</v>
+        <f t="shared" si="4"/>
+        <v>1084557.4487999999</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B18" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4208463.5409309175</v>
+        <f>B14*0.2+B19*0.8</f>
+        <v>3309638.1039999998</v>
       </c>
       <c r="C18" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>879278.49019149749</v>
+        <f>C14*0.2+C19*0.8</f>
+        <v>773006.74399999995</v>
       </c>
       <c r="D18" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5144556.9924184158</v>
+        <f t="shared" ref="D18" si="44">D14*0.2+D19*0.8</f>
+        <v>5282678.5519999992</v>
       </c>
       <c r="E18" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1841235.2586845479</v>
+        <f t="shared" ref="E18" si="45">E14*0.2+E19*0.8</f>
+        <v>2820095.88</v>
       </c>
       <c r="F18" s="4">
         <v>0</v>
@@ -12378,64 +13787,64 @@
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2621935.3981516548</v>
+        <f t="shared" ref="H18" si="46">H14*0.2+H19*0.8</f>
+        <v>2885817.2960000001</v>
       </c>
       <c r="I18" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3498324.1015467704</v>
+        <f t="shared" ref="I18" si="47">I14*0.2+I19*0.8</f>
+        <v>4456330.379999999</v>
       </c>
       <c r="J18" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K18" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>582335.32315713551</v>
+        <f t="shared" si="1"/>
+        <v>771813.696</v>
       </c>
       <c r="L18" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>582335.32315713551</v>
+        <f t="shared" ref="L18" si="48">L14*0.2+L19*0.8</f>
+        <v>771813.696</v>
       </c>
       <c r="M18" s="4">
         <f>B18*'Coal Cost Multipliers'!$B$33</f>
-        <v>4877366.332907143</v>
+        <v>3835679.531391527</v>
       </c>
       <c r="N18" s="4">
         <v>0</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="0"/>
-        <v>582335.32315713551</v>
+        <f t="shared" si="2"/>
+        <v>771813.696</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="1"/>
-        <v>582335.32315713551</v>
+        <f t="shared" si="3"/>
+        <v>771813.696</v>
       </c>
       <c r="Q18" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A18,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1327215.064841209</v>
+        <f t="shared" si="4"/>
+        <v>1080539.1743999999</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B19" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4186398.8306184118</v>
+        <f>'Texas Notes'!B30*'Texas Notes'!$A$3*1000</f>
+        <v>3300903.9999999995</v>
       </c>
       <c r="C19" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>876080.77976725693</v>
+        <f>'Texas Notes'!C30*'Texas Notes'!$A$3*1000</f>
+        <v>770392.98</v>
       </c>
       <c r="D19" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5113751.0211141268</v>
+        <f>'Texas Notes'!G30*'Texas Notes'!$A$3*1000</f>
+        <v>5253539.6799999988</v>
       </c>
       <c r="E19" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1804172.86213658</v>
+        <f>'Texas Notes'!F30*'Texas Notes'!$A$3*1000</f>
+        <v>2773864.8</v>
       </c>
       <c r="F19" s="4">
         <v>0</v>
@@ -12444,64 +13853,64 @@
         <v>0</v>
       </c>
       <c r="H19" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2594783.2011154736</v>
+        <f>'Texas Notes'!L30*'Texas Notes'!$A$3*1000</f>
+        <v>2855932.44</v>
       </c>
       <c r="I19" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3486425.1131533994</v>
+        <f>'Texas Notes'!M30*'Texas Notes'!$A$3*1000</f>
+        <v>4456330.379999999</v>
       </c>
       <c r="J19" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K19" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>580078.88935867744</v>
+        <f t="shared" si="1"/>
+        <v>768943.5</v>
       </c>
       <c r="L19" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>580078.88935867744</v>
+        <f>'Texas Notes'!D30*'Texas Notes'!$A$3*1000</f>
+        <v>768943.5</v>
       </c>
       <c r="M19" s="4">
         <f>B19*'Coal Cost Multipliers'!$B$33</f>
-        <v>4851794.6072222488</v>
+        <v>3825557.2089849301</v>
       </c>
       <c r="N19" s="4">
         <v>0</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="0"/>
-        <v>580078.88935867744</v>
+        <f t="shared" si="2"/>
+        <v>768943.5</v>
       </c>
       <c r="P19" s="4">
-        <f t="shared" si="1"/>
-        <v>580078.88935867744</v>
+        <f t="shared" si="3"/>
+        <v>768943.5</v>
       </c>
       <c r="Q19" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A19,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1322700.7556481098</v>
+        <f t="shared" si="4"/>
+        <v>1076520.8999999999</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B20" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4166126.8892237116</v>
+        <f>B19*0.8+B24*0.2</f>
+        <v>3291840.8959999997</v>
       </c>
       <c r="C20" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>873031.18542034749</v>
+        <f>C19*0.8+C24*0.2</f>
+        <v>768243.57599999988</v>
       </c>
       <c r="D20" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5085136.6985640414</v>
+        <f t="shared" ref="D20" si="49">D19*0.8+D24*0.2</f>
+        <v>5223888.6959999995</v>
       </c>
       <c r="E20" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1794462.9361779527</v>
+        <f t="shared" ref="E20" si="50">E19*0.8+E24*0.2</f>
+        <v>2754879.2439999999</v>
       </c>
       <c r="F20" s="4">
         <v>0</v>
@@ -12510,64 +13919,64 @@
         <v>0</v>
       </c>
       <c r="H20" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2567631.0040792916</v>
+        <f t="shared" ref="H20" si="51">H19*0.8+H24*0.2</f>
+        <v>2826047.5839999998</v>
       </c>
       <c r="I20" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3475936.55756051</v>
+        <f t="shared" ref="I20" si="52">I19*0.8+I24*0.2</f>
+        <v>4456330.379999999</v>
       </c>
       <c r="J20" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K20" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>577852.50109153183</v>
+        <f t="shared" si="1"/>
+        <v>766782.81599999999</v>
       </c>
       <c r="L20" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>577852.50109153183</v>
+        <f t="shared" ref="L20" si="53">L19*0.8+L24*0.2</f>
+        <v>766782.81599999999</v>
       </c>
       <c r="M20" s="4">
         <f>B20*'Coal Cost Multipliers'!$B$33</f>
-        <v>4828300.5972351003</v>
+        <v>3815053.594568098</v>
       </c>
       <c r="N20" s="4">
         <v>0</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" si="0"/>
-        <v>577852.50109153183</v>
+        <f t="shared" si="2"/>
+        <v>766782.81599999999</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="1"/>
-        <v>577852.50109153183</v>
+        <f t="shared" si="3"/>
+        <v>766782.81599999999</v>
       </c>
       <c r="Q20" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A20,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1318721.5448639654</v>
+        <f t="shared" si="4"/>
+        <v>1073495.9423999998</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B21" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4144856.7230918976</v>
+        <f>B19*0.6+B24*0.4</f>
+        <v>3282777.7919999994</v>
       </c>
       <c r="C21" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>870245.50664545642</v>
+        <f>C19*0.6+C24*0.4</f>
+        <v>766094.17200000002</v>
       </c>
       <c r="D21" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5055305.8897382952</v>
+        <f t="shared" ref="D21:E21" si="54">D19*0.6+D24*0.4</f>
+        <v>5194237.7119999994</v>
       </c>
       <c r="E21" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1784753.010219326</v>
+        <f t="shared" si="54"/>
+        <v>2735893.6880000001</v>
       </c>
       <c r="F21" s="4">
         <v>0</v>
@@ -12576,64 +13985,64 @@
         <v>0</v>
       </c>
       <c r="H21" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2540478.80704311</v>
+        <f t="shared" ref="H21:I21" si="55">H19*0.6+H24*0.4</f>
+        <v>2796162.7280000001</v>
       </c>
       <c r="I21" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3464657.6933189998</v>
+        <f t="shared" si="55"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="J21" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K21" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>575943.52100203745</v>
+        <f t="shared" si="1"/>
+        <v>764622.13199999998</v>
       </c>
       <c r="L21" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>575943.52100203745</v>
+        <f t="shared" ref="L21" si="56">L19*0.6+L24*0.4</f>
+        <v>764622.13199999998</v>
       </c>
       <c r="M21" s="4">
         <f>B21*'Coal Cost Multipliers'!$B$33</f>
-        <v>4803649.702394818</v>
+        <v>3804549.9801512649</v>
       </c>
       <c r="N21" s="4">
         <v>0</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" si="0"/>
-        <v>575943.52100203745</v>
+        <f t="shared" si="2"/>
+        <v>764622.13199999998</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="1"/>
-        <v>575943.52100203745</v>
+        <f t="shared" si="3"/>
+        <v>764622.13199999998</v>
       </c>
       <c r="Q21" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A21,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1314442.5020705855</v>
+        <f t="shared" si="4"/>
+        <v>1070470.9848</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B22" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4125867.4823163347</v>
+        <f>B19*0.4+B24*0.6</f>
+        <v>3273714.6879999992</v>
       </c>
       <c r="C22" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>868389.37121165253</v>
+        <f>C19*0.4+C24*0.6</f>
+        <v>763944.76799999992</v>
       </c>
       <c r="D22" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>5028258.59327613</v>
+        <f t="shared" ref="D22:E22" si="57">D19*0.4+D24*0.6</f>
+        <v>5164586.7280000001</v>
       </c>
       <c r="E22" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1775043.0842606986</v>
+        <f t="shared" si="57"/>
+        <v>2716908.1320000002</v>
       </c>
       <c r="F22" s="4">
         <v>0</v>
@@ -12642,64 +14051,64 @@
         <v>0</v>
       </c>
       <c r="H22" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2513326.610006928</v>
+        <f t="shared" ref="H22:I22" si="58">H19*0.4+H24*0.6</f>
+        <v>2766277.8719999995</v>
       </c>
       <c r="I22" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3455183.6645810818</v>
+        <f t="shared" si="58"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="J22" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K22" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>574785.58623469959</v>
+        <f t="shared" si="1"/>
+        <v>762461.44799999986</v>
       </c>
       <c r="L22" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>574785.58623469959</v>
+        <f t="shared" ref="L22" si="59">L19*0.4+L24*0.6</f>
+        <v>762461.44799999986</v>
       </c>
       <c r="M22" s="4">
         <f>B22*'Coal Cost Multipliers'!$B$33</f>
-        <v>4781642.2683882229</v>
+        <v>3794046.3657344319</v>
       </c>
       <c r="N22" s="4">
         <v>0</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" si="0"/>
-        <v>574785.58623469959</v>
+        <f t="shared" si="2"/>
+        <v>762461.44799999986</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="1"/>
-        <v>574785.58623469959</v>
+        <f t="shared" si="3"/>
+        <v>762461.44799999986</v>
       </c>
       <c r="Q22" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A22,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1310848.1885362437</v>
+        <f t="shared" si="4"/>
+        <v>1067446.0271999997</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B23" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4104680.723820759</v>
+        <f>B19*0.2+B24*0.8</f>
+        <v>3264651.5839999998</v>
       </c>
       <c r="C23" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>866070.37401335512</v>
+        <f>C19*0.2+C24*0.8</f>
+        <v>761795.36399999994</v>
       </c>
       <c r="D23" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>4998531.5290436288</v>
+        <f t="shared" ref="D23" si="60">D19*0.2+D24*0.8</f>
+        <v>5134935.7440000009</v>
       </c>
       <c r="E23" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1765333.158302071</v>
+        <f t="shared" ref="E23" si="61">E19*0.2+E24*0.8</f>
+        <v>2697922.5759999999</v>
       </c>
       <c r="F23" s="4">
         <v>0</v>
@@ -12708,64 +14117,64 @@
         <v>0</v>
       </c>
       <c r="H23" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2486174.4129707455</v>
+        <f t="shared" ref="H23" si="62">H19*0.2+H24*0.8</f>
+        <v>2736393.0159999998</v>
       </c>
       <c r="I23" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3443966.4121572562</v>
+        <f t="shared" ref="I23" si="63">I19*0.2+I24*0.8</f>
+        <v>4456330.379999999</v>
       </c>
       <c r="J23" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K23" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>573321.26147515886</v>
+        <f t="shared" si="1"/>
+        <v>760300.76399999997</v>
       </c>
       <c r="L23" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>573321.26147515886</v>
+        <f t="shared" ref="L23" si="64">L19*0.2+L24*0.8</f>
+        <v>760300.76399999997</v>
       </c>
       <c r="M23" s="4">
         <f>B23*'Coal Cost Multipliers'!$B$33</f>
-        <v>4757088.0381840812</v>
+        <v>3783542.7513176003</v>
       </c>
       <c r="N23" s="4">
         <v>0</v>
       </c>
       <c r="O23" s="4">
-        <f t="shared" si="0"/>
-        <v>573321.26147515886</v>
+        <f t="shared" si="2"/>
+        <v>760300.76399999997</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" si="1"/>
-        <v>573321.26147515886</v>
+        <f t="shared" si="3"/>
+        <v>760300.76399999997</v>
       </c>
       <c r="Q23" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A23,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1306592.5204017661</v>
+        <f t="shared" si="4"/>
+        <v>1064421.0695999998</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B24" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4084014.7285643537</v>
+        <f>'Texas Notes'!B31*'Texas Notes'!$A$3*1000</f>
+        <v>3255588.4799999995</v>
       </c>
       <c r="C24" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>863860.25524858502</v>
+        <f>'Texas Notes'!C31*'Texas Notes'!$A$3*1000</f>
+        <v>759645.95999999985</v>
       </c>
       <c r="D24" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>4969440.6376708252</v>
+        <f>'Texas Notes'!G31*'Texas Notes'!$A$3*1000</f>
+        <v>5105284.7600000007</v>
       </c>
       <c r="E24" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1755623.2323434441</v>
+        <f>'Texas Notes'!F31*'Texas Notes'!$A$3*1000</f>
+        <v>2678937.02</v>
       </c>
       <c r="F24" s="4">
         <v>0</v>
@@ -12774,64 +14183,64 @@
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2459022.2159345644</v>
+        <f>'Texas Notes'!L31*'Texas Notes'!$A$3*1000</f>
+        <v>2706508.1599999997</v>
       </c>
       <c r="I24" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3433160.4520611921</v>
+        <f>'Texas Notes'!M31*'Texas Notes'!$A$3*1000</f>
+        <v>4456330.379999999</v>
       </c>
       <c r="J24" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K24" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>571929.01977696037</v>
+        <f t="shared" si="1"/>
+        <v>758140.07999999984</v>
       </c>
       <c r="L24" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>571929.01977696037</v>
+        <f>'Texas Notes'!D31*'Texas Notes'!$A$3*1000</f>
+        <v>758140.07999999984</v>
       </c>
       <c r="M24" s="4">
         <f>B24*'Coal Cost Multipliers'!$B$33</f>
-        <v>4733137.3425158681</v>
+        <v>3773039.1369007672</v>
       </c>
       <c r="N24" s="4">
         <v>0</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="0"/>
-        <v>571929.01977696037</v>
+        <f t="shared" si="2"/>
+        <v>758140.07999999984</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="1"/>
-        <v>571929.01977696037</v>
+        <f t="shared" si="3"/>
+        <v>758140.07999999984</v>
       </c>
       <c r="Q24" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A24,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1302492.8908039173</v>
+        <f t="shared" si="4"/>
+        <v>1061396.1119999997</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B25" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4067550.5033159018</v>
+        <f>B24*0.8+B29*0.2</f>
+        <v>3247466.88</v>
       </c>
       <c r="C25" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>862540.48501902213</v>
+        <f>C24*0.8+C29*0.2</f>
+        <v>757958.28399999987</v>
       </c>
       <c r="D25" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>4945459.5905335443</v>
+        <f t="shared" ref="D25" si="65">D24*0.8+D29*0.2</f>
+        <v>5077106.3800000008</v>
       </c>
       <c r="E25" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1745913.3063848168</v>
+        <f t="shared" ref="E25" si="66">E24*0.8+E29*0.2</f>
+        <v>2659951.4639999997</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
@@ -12840,64 +14249,64 @@
         <v>0</v>
       </c>
       <c r="H25" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2431870.0188983819</v>
+        <f t="shared" ref="H25" si="67">H24*0.8+H29*0.2</f>
+        <v>2676623.1159999999</v>
       </c>
       <c r="I25" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3425700.1078922306</v>
+        <f t="shared" ref="I25" si="68">I24*0.8+I29*0.2</f>
+        <v>4456330.379999999</v>
       </c>
       <c r="J25" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K25" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>571126.25277404871</v>
+        <f t="shared" si="1"/>
+        <v>756549.78799999994</v>
       </c>
       <c r="L25" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>571126.25277404871</v>
+        <f t="shared" ref="L25" si="69">L24*0.8+L29*0.2</f>
+        <v>756549.78799999994</v>
       </c>
       <c r="M25" s="4">
         <f>B25*'Coal Cost Multipliers'!$B$33</f>
-        <v>4714056.2557621887</v>
+        <v>3763626.6712766564</v>
       </c>
       <c r="N25" s="4">
         <v>0</v>
       </c>
       <c r="O25" s="4">
-        <f t="shared" si="0"/>
-        <v>571126.25277404871</v>
+        <f t="shared" si="2"/>
+        <v>756549.78799999994</v>
       </c>
       <c r="P25" s="4">
-        <f t="shared" si="1"/>
-        <v>571126.25277404871</v>
+        <f t="shared" si="3"/>
+        <v>756549.78799999994</v>
       </c>
       <c r="Q25" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A25,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1299662.5409327983</v>
+        <f t="shared" si="4"/>
+        <v>1059169.7031999999</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B26" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4041919.4833016312</v>
+        <f>B24*0.6+B29*0.4</f>
+        <v>3239345.2799999993</v>
       </c>
       <c r="C26" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>859275.63459266303</v>
+        <f>C24*0.6+C29*0.4</f>
+        <v>756270.60799999977</v>
       </c>
       <c r="D26" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>4910336.3730173539</v>
+        <f t="shared" ref="D26:E26" si="70">D24*0.6+D29*0.4</f>
+        <v>5048928</v>
       </c>
       <c r="E26" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1736203.3804261896</v>
+        <f t="shared" si="70"/>
+        <v>2640965.9079999998</v>
       </c>
       <c r="F26" s="4">
         <v>0</v>
@@ -12906,64 +14315,64 @@
         <v>0</v>
       </c>
       <c r="H26" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2404717.8218621998</v>
+        <f t="shared" ref="H26:I26" si="71">H24*0.6+H29*0.4</f>
+        <v>2646738.0719999997</v>
       </c>
       <c r="I26" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3410933.8741836962</v>
+        <f t="shared" si="71"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="J26" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K26" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>569035.57651885482</v>
+        <f t="shared" si="1"/>
+        <v>754959.49599999981</v>
       </c>
       <c r="L26" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>569035.57651885482</v>
+        <f t="shared" ref="L26" si="72">L24*0.6+L29*0.4</f>
+        <v>754959.49599999981</v>
       </c>
       <c r="M26" s="4">
         <f>B26*'Coal Cost Multipliers'!$B$33</f>
-        <v>4684351.3829790875</v>
+        <v>3754214.2056525443</v>
       </c>
       <c r="N26" s="4">
         <v>0</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="0"/>
-        <v>569035.57651885482</v>
+        <f t="shared" si="2"/>
+        <v>754959.49599999981</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="1"/>
-        <v>569035.57651885482</v>
+        <f t="shared" si="3"/>
+        <v>754959.49599999981</v>
       </c>
       <c r="Q26" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A26,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1294060.4391091652</v>
+        <f t="shared" si="4"/>
+        <v>1056943.2943999998</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B27" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4027549.0846800846</v>
+        <f>B24*0.4+B29*0.6</f>
+        <v>3231223.6799999997</v>
       </c>
       <c r="C27" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>858404.68064265454</v>
+        <f>C24*0.4+C29*0.6</f>
+        <v>754582.9319999998</v>
       </c>
       <c r="D27" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>4888892.5746857012</v>
+        <f t="shared" ref="D27:E27" si="73">D24*0.4+D29*0.6</f>
+        <v>5020749.62</v>
       </c>
       <c r="E27" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1726493.454467562</v>
+        <f t="shared" si="73"/>
+        <v>2621980.352</v>
       </c>
       <c r="F27" s="4">
         <v>0</v>
@@ -12972,64 +14381,64 @@
         <v>0</v>
       </c>
       <c r="H27" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2377565.6248260182</v>
+        <f t="shared" ref="H27:I27" si="74">H24*0.4+H29*0.6</f>
+        <v>2616853.0279999999</v>
       </c>
       <c r="I27" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3405154.6476856545</v>
+        <f t="shared" si="74"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="J27" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K27" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>568530.177953306</v>
+        <f t="shared" si="1"/>
+        <v>753369.20399999991</v>
       </c>
       <c r="L27" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>568530.177953306</v>
+        <f t="shared" ref="L27" si="75">L24*0.4+L29*0.6</f>
+        <v>753369.20399999991</v>
       </c>
       <c r="M27" s="4">
         <f>B27*'Coal Cost Multipliers'!$B$33</f>
-        <v>4667696.920431057</v>
+        <v>3744801.740028433</v>
       </c>
       <c r="N27" s="4">
         <v>0</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="0"/>
-        <v>568530.177953306</v>
+        <f t="shared" si="2"/>
+        <v>753369.20399999991</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="1"/>
-        <v>568530.177953306</v>
+        <f t="shared" si="3"/>
+        <v>753369.20399999991</v>
       </c>
       <c r="Q27" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A27,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1291867.8816877592</v>
+        <f t="shared" si="4"/>
+        <v>1054716.8855999999</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B28" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>4002808.235279711</v>
+        <f>B24*0.2+B29*0.8</f>
+        <v>3223102.0799999996</v>
       </c>
       <c r="C28" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>855323.90187924227</v>
+        <f>C24*0.2+C29*0.8</f>
+        <v>752895.25599999982</v>
       </c>
       <c r="D28" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>4854859.1300343601</v>
+        <f t="shared" ref="D28" si="76">D24*0.2+D29*0.8</f>
+        <v>4992571.2400000012</v>
       </c>
       <c r="E28" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1716783.5285089349</v>
+        <f t="shared" ref="E28" si="77">E24*0.2+E29*0.8</f>
+        <v>2602994.7960000001</v>
       </c>
       <c r="F28" s="4">
         <v>0</v>
@@ -13038,64 +14447,64 @@
         <v>0</v>
       </c>
       <c r="H28" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2350413.4277898367</v>
+        <f t="shared" ref="H28" si="78">H24*0.2+H29*0.8</f>
+        <v>2586967.9840000002</v>
       </c>
       <c r="I28" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3391084.6066551027</v>
+        <f t="shared" ref="I28" si="79">I24*0.2+I29*0.8</f>
+        <v>4456330.379999999</v>
       </c>
       <c r="J28" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K28" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>566561.19400174171</v>
+        <f t="shared" si="1"/>
+        <v>751778.91199999989</v>
       </c>
       <c r="L28" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>566561.19400174171</v>
+        <f t="shared" ref="L28" si="80">L24*0.2+L29*0.8</f>
+        <v>751778.91199999989</v>
       </c>
       <c r="M28" s="4">
         <f>B28*'Coal Cost Multipliers'!$B$33</f>
-        <v>4639023.7040091278</v>
+        <v>3735389.2744043218</v>
       </c>
       <c r="N28" s="4">
         <v>0</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="0"/>
-        <v>566561.19400174171</v>
+        <f t="shared" si="2"/>
+        <v>751778.91199999989</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="1"/>
-        <v>566561.19400174171</v>
+        <f t="shared" si="3"/>
+        <v>751778.91199999989</v>
       </c>
       <c r="Q28" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A28,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1286529.9055950278</v>
+        <f t="shared" si="4"/>
+        <v>1052490.4767999998</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B29" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>3987525.789950409</v>
+        <f>'Texas Notes'!B32*'Texas Notes'!$A$3*1000</f>
+        <v>3214980.4799999995</v>
       </c>
       <c r="C29" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>854264.07546210196</v>
+        <f>'Texas Notes'!C32*'Texas Notes'!$A$3*1000</f>
+        <v>751207.57999999984</v>
       </c>
       <c r="D29" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>4832297.6878896719</v>
+        <f>'Texas Notes'!G32*'Texas Notes'!$A$3*1000</f>
+        <v>4964392.8600000003</v>
       </c>
       <c r="E29" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1707073.6025503075</v>
+        <f>'Texas Notes'!F32*'Texas Notes'!$A$3*1000</f>
+        <v>2584009.2399999998</v>
       </c>
       <c r="F29" s="4">
         <v>0</v>
@@ -13104,64 +14513,64 @@
         <v>0</v>
       </c>
       <c r="H29" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2323261.2307536541</v>
+        <f>'Texas Notes'!L32*'Texas Notes'!$A$3*1000</f>
+        <v>2557082.94</v>
       </c>
       <c r="I29" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3384590.2237373139</v>
+        <f>'Texas Notes'!M32*'Texas Notes'!$A$3*1000</f>
+        <v>4456330.379999999</v>
       </c>
       <c r="J29" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K29" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>565930.83880835248</v>
+        <f t="shared" si="1"/>
+        <v>750188.61999999988</v>
       </c>
       <c r="L29" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>565930.83880835248</v>
+        <f>'Texas Notes'!D32*'Texas Notes'!$A$3*1000</f>
+        <v>750188.61999999988</v>
       </c>
       <c r="M29" s="4">
         <f>B29*'Coal Cost Multipliers'!$B$33</f>
-        <v>4621312.2319698231</v>
+        <v>3725976.8087802101</v>
       </c>
       <c r="N29" s="4">
         <v>0</v>
       </c>
       <c r="O29" s="4">
-        <f t="shared" si="0"/>
-        <v>565930.83880835248</v>
+        <f t="shared" si="2"/>
+        <v>750188.61999999988</v>
       </c>
       <c r="P29" s="4">
-        <f t="shared" si="1"/>
-        <v>565930.83880835248</v>
+        <f t="shared" si="3"/>
+        <v>750188.61999999988</v>
       </c>
       <c r="Q29" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A29,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1284066.0278652529</v>
+        <f t="shared" si="4"/>
+        <v>1050264.0679999997</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B30" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>3964365.0723133213</v>
+        <f>B29*0.8+B33*0.2</f>
+        <v>3201101.7559999996</v>
       </c>
       <c r="C30" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>851517.47797442612</v>
+        <f>C29*0.8+C33*0.2</f>
+        <v>748173.25999999989</v>
       </c>
       <c r="D30" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>4800188.8840519451</v>
+        <f>D29*0.8+D33*0.2</f>
+        <v>4927440.5200000005</v>
       </c>
       <c r="E30" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1697363.6765916804</v>
+        <f>E29*0.8+E33*0.2</f>
+        <v>2565023.6839999999</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
@@ -13170,64 +14579,64 @@
         <v>0</v>
       </c>
       <c r="H30" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2296109.0337174726</v>
+        <f>H29*0.8+H33*0.2</f>
+        <v>2527198.0839999998</v>
       </c>
       <c r="I30" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3371777.3022148283</v>
+        <f>I29*0.8+I33*0.2</f>
+        <v>4456330.379999999</v>
       </c>
       <c r="J30" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K30" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>564183.11255323095</v>
+        <f t="shared" si="1"/>
+        <v>747252.81199999992</v>
       </c>
       <c r="L30" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>564183.11255323095</v>
+        <f>L29*0.8+L33*0.2</f>
+        <v>747252.81199999992</v>
       </c>
       <c r="M30" s="4">
         <f>B30*'Coal Cost Multipliers'!$B$33</f>
-        <v>4594470.2970568947</v>
+        <v>3709892.1687392662</v>
       </c>
       <c r="N30" s="4">
         <v>0</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" si="0"/>
-        <v>564183.11255323095</v>
+        <f t="shared" si="2"/>
+        <v>747252.81199999992</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="1"/>
-        <v>564183.11255323095</v>
+        <f t="shared" si="3"/>
+        <v>747252.81199999992</v>
       </c>
       <c r="Q30" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A30,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1279204.9852700992</v>
+        <f t="shared" si="4"/>
+        <v>1046153.9367999998</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B31" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>3944904.6700286916</v>
+        <f>B29*0.6+B33*0.4</f>
+        <v>3187223.0319999997</v>
       </c>
       <c r="C31" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>849564.13218949281</v>
+        <f>C29*0.6+C33*0.4</f>
+        <v>745138.93999999983</v>
       </c>
       <c r="D31" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>4772563.1483514039</v>
+        <f>D29*0.6+D33*0.4</f>
+        <v>4890488.18</v>
       </c>
       <c r="E31" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1687653.7506330532</v>
+        <f>E29*0.6+E33*0.4</f>
+        <v>2546038.1279999996</v>
       </c>
       <c r="F31" s="4">
         <v>0</v>
@@ -13236,64 +14645,64 @@
         <v>0</v>
       </c>
       <c r="H31" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2268956.8366812905</v>
+        <f>H29*0.6+H33*0.4</f>
+        <v>2497313.2280000001</v>
       </c>
       <c r="I31" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3361934.7756505935</v>
+        <f>I29*0.6+I33*0.4</f>
+        <v>4456330.379999999</v>
       </c>
       <c r="J31" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K31" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>562960.8983085549</v>
+        <f t="shared" si="1"/>
+        <v>744317.00399999996</v>
       </c>
       <c r="L31" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>562960.8983085549</v>
+        <f>L29*0.6+L33*0.4</f>
+        <v>744317.00399999996</v>
       </c>
       <c r="M31" s="4">
         <f>B31*'Coal Cost Multipliers'!$B$33</f>
-        <v>4571916.8140565678</v>
+        <v>3693807.5286983224</v>
       </c>
       <c r="N31" s="4">
         <v>0</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="0"/>
-        <v>562960.8983085549</v>
+        <f t="shared" si="2"/>
+        <v>744317.00399999996</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="1"/>
-        <v>562960.8983085549</v>
+        <f t="shared" si="3"/>
+        <v>744317.00399999996</v>
       </c>
       <c r="Q31" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A31,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1275470.8688323523</v>
+        <f t="shared" si="4"/>
+        <v>1042043.8055999998</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B32" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>3925379.2073251978</v>
+        <f>B29*0.4+B33*0.6</f>
+        <v>3173344.3079999997</v>
       </c>
       <c r="C32" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>847597.09481380892</v>
+        <f>C29*0.4+C33*0.6</f>
+        <v>742104.61999999988</v>
       </c>
       <c r="D32" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>4744855.6043133195</v>
+        <f>D29*0.4+D33*0.6</f>
+        <v>4853535.84</v>
       </c>
       <c r="E32" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1677943.8246744261</v>
+        <f>E29*0.4+E33*0.6</f>
+        <v>2527052.5719999997</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
@@ -13302,64 +14711,64 @@
         <v>0</v>
       </c>
       <c r="H32" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2241804.6396451085</v>
+        <f>H29*0.4+H33*0.6</f>
+        <v>2467428.3719999995</v>
       </c>
       <c r="I32" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3352040.6597777726</v>
+        <f>I29*0.4+I33*0.6</f>
+        <v>4456330.379999999</v>
       </c>
       <c r="J32" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K32" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>561729.66530371504</v>
+        <f t="shared" si="1"/>
+        <v>741381.196</v>
       </c>
       <c r="L32" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>561729.66530371504</v>
+        <f>L29*0.4+L33*0.6</f>
+        <v>741381.196</v>
       </c>
       <c r="M32" s="4">
         <f>B32*'Coal Cost Multipliers'!$B$33</f>
-        <v>4549287.9297860414</v>
+        <v>3677722.8886573785</v>
       </c>
       <c r="N32" s="4">
         <v>0</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="0"/>
-        <v>561729.66530371504</v>
+        <f t="shared" si="2"/>
+        <v>741381.196</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="1"/>
-        <v>561729.66530371504</v>
+        <f t="shared" si="3"/>
+        <v>741381.196</v>
       </c>
       <c r="Q32" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A32,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1271717.1801349882</v>
+        <f t="shared" si="4"/>
+        <v>1037933.6743999999</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B33" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>3905501.7363179387</v>
+        <f>'Texas Notes'!B33*'Texas Notes'!$A$3*1000</f>
+        <v>3145586.86</v>
       </c>
       <c r="C33" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>845554.54963951895</v>
+        <f>'Texas Notes'!C33*'Texas Notes'!$A$3*1000</f>
+        <v>736035.97999999986</v>
       </c>
       <c r="D33" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>4716723.1390827727</v>
+        <f>'Texas Notes'!G33*'Texas Notes'!$A$3*1000</f>
+        <v>4779631.16</v>
       </c>
       <c r="E33" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1668233.898715799</v>
+        <f>'Texas Notes'!F33*'Texas Notes'!$A$3*1000</f>
+        <v>2489081.46</v>
       </c>
       <c r="F33" s="4">
         <v>0</v>
@@ -13368,110 +14777,47 @@
         <v>0</v>
       </c>
       <c r="H33" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2214652.4426089264</v>
+        <f>'Texas Notes'!L33*'Texas Notes'!$A$3*1000</f>
+        <v>2407658.6599999997</v>
       </c>
       <c r="I33" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3341863.5705453139</v>
+        <f>'Texas Notes'!M33*'Texas Notes'!$A$3*1000</f>
+        <v>4456330.379999999</v>
       </c>
       <c r="J33" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
+        <f t="shared" si="0"/>
+        <v>4456330.379999999</v>
       </c>
       <c r="K33" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>560448.29901305423</v>
+        <f t="shared" si="1"/>
+        <v>735509.58</v>
       </c>
       <c r="L33" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>560448.29901305423</v>
+        <f>'Texas Notes'!D33*'Texas Notes'!$A$3*1000</f>
+        <v>735509.58</v>
       </c>
       <c r="M33" s="4">
         <f>B33*'Coal Cost Multipliers'!$B$33</f>
-        <v>4526251.0882092463</v>
+        <v>3645553.6085754908</v>
       </c>
       <c r="N33" s="4">
         <v>0</v>
       </c>
       <c r="O33" s="4">
-        <f t="shared" si="0"/>
-        <v>560448.29901305423</v>
+        <f t="shared" si="2"/>
+        <v>735509.58</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" si="1"/>
-        <v>560448.29901305423</v>
+        <f t="shared" si="3"/>
+        <v>735509.58</v>
       </c>
       <c r="Q33" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A33,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1267856.1353165335</v>
+        <f t="shared" si="4"/>
+        <v>1029713.4119999999</v>
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="1">
-        <v>2050</v>
-      </c>
-      <c r="B34" s="4">
-        <f>'EIA Costs'!$D$3*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("coal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$61</f>
-        <v>3855675.0986996656</v>
-      </c>
-      <c r="C34" s="4">
-        <f>'EIA Costs'!$D$5*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas nonpeaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>837010.54636717902</v>
-      </c>
-      <c r="D34" s="4">
-        <f>'EIA Costs'!$D$8*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("nuclear",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>4652452.4766705297</v>
-      </c>
-      <c r="E34" s="4">
-        <f>'EIA Costs'!$D$11*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("hydro",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1658523.9727571718</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4">
-        <f>'EIA Costs'!$D$14*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("solar thermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>2187500.2455727453</v>
-      </c>
-      <c r="I34" s="4">
-        <f>'EIA Costs'!$D$9*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>3307435.7945322236</v>
-      </c>
-      <c r="J34" s="4">
-        <f>'EIA Costs'!$D$10*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("geothermal",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>640953.95192689588</v>
-      </c>
-      <c r="K34" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>554857.17842271458</v>
-      </c>
-      <c r="L34" s="4">
-        <f>'EIA Costs'!$D$7*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("natural gas peaker",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>554857.17842271458</v>
-      </c>
-      <c r="M34" s="4">
-        <f>B34*'Coal Cost Multipliers'!$B$33</f>
-        <v>4468504.8911856236</v>
-      </c>
-      <c r="N34" s="4">
-        <v>0</v>
-      </c>
-      <c r="O34" s="4">
-        <f t="shared" si="0"/>
-        <v>554857.17842271458</v>
-      </c>
-      <c r="P34" s="4">
-        <f t="shared" si="1"/>
-        <v>554857.17842271458</v>
-      </c>
-      <c r="Q34" s="4">
-        <f>'EIA Costs'!$D$16*INDEX('Cost Improvement and Off Wnd'!$B$63:$AI$71,MATCH("biomass",'Cost Improvement and Off Wnd'!$A$63:$A$71,0),MATCH('CCaMC-BCCpUC'!$A34,'Cost Improvement and Off Wnd'!$B$62:$AI$62,0))*1000*About!$A$65</f>
-        <v>1254794.7202940234</v>
-      </c>
+      <c r="B34" s="12"/>
     </row>
     <row r="35" spans="1:17">
       <c r="B35" s="12"/>
@@ -13508,9 +14854,6 @@
     </row>
     <row r="46" spans="1:17">
       <c r="B46" s="12"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="B47" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
